--- a/REGULAR/CHO/CRIZALDO, THELMA.xlsx
+++ b/REGULAR/CHO/CRIZALDO, THELMA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="417">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1278,6 +1278,12 @@
   </si>
   <si>
     <t>UT(0-0-54)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -1984,8 +1990,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K566" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K566"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K567" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K567"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2314,12 +2320,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K566"/>
+  <dimension ref="A2:K567"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A493" activePane="bottomLeft"/>
-      <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="F499" sqref="F499"/>
+      <pane ySplit="4050" topLeftCell="A505" activePane="bottomLeft"/>
+      <selection activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="I518" sqref="I518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2482,7 +2488,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.643999999999949</v>
+        <v>32.143999999999949</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2492,7 +2498,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>142</v>
+        <v>148.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10197,7 +10203,7 @@
       </c>
       <c r="E341" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.643999999999949</v>
+        <v>32.143999999999949</v>
       </c>
       <c r="F341" s="20"/>
       <c r="G341" s="13" t="str">
@@ -10207,7 +10213,7 @@
       <c r="H341" s="39"/>
       <c r="I341" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>142</v>
+        <v>148.5</v>
       </c>
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
@@ -10275,7 +10281,7 @@
       </c>
       <c r="E344" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.643999999999949</v>
+        <v>32.143999999999949</v>
       </c>
       <c r="F344" s="20"/>
       <c r="G344" s="13" t="str">
@@ -10285,7 +10291,7 @@
       <c r="H344" s="39"/>
       <c r="I344" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>142</v>
+        <v>148.5</v>
       </c>
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
@@ -10326,7 +10332,7 @@
       <c r="D346" s="39"/>
       <c r="E346" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.643999999999949</v>
+        <v>32.143999999999949</v>
       </c>
       <c r="F346" s="20"/>
       <c r="G346" s="13" t="str">
@@ -10338,7 +10344,7 @@
       </c>
       <c r="I346" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>142</v>
+        <v>148.5</v>
       </c>
       <c r="J346" s="11"/>
       <c r="K346" s="20" t="s">
@@ -10356,7 +10362,7 @@
       </c>
       <c r="E347" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.643999999999949</v>
+        <v>32.143999999999949</v>
       </c>
       <c r="F347" s="20"/>
       <c r="G347" s="13" t="str">
@@ -10366,7 +10372,7 @@
       <c r="H347" s="39"/>
       <c r="I347" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>142</v>
+        <v>148.5</v>
       </c>
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
@@ -10409,7 +10415,7 @@
       </c>
       <c r="E349" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.643999999999949</v>
+        <v>32.143999999999949</v>
       </c>
       <c r="F349" s="20"/>
       <c r="G349" s="13" t="str">
@@ -10419,7 +10425,7 @@
       <c r="H349" s="39"/>
       <c r="I349" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>142</v>
+        <v>148.5</v>
       </c>
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
@@ -10460,7 +10466,7 @@
       <c r="D351" s="39"/>
       <c r="E351" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.643999999999949</v>
+        <v>32.143999999999949</v>
       </c>
       <c r="F351" s="20"/>
       <c r="G351" s="13" t="str">
@@ -10472,7 +10478,7 @@
       </c>
       <c r="I351" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>142</v>
+        <v>148.5</v>
       </c>
       <c r="J351" s="11"/>
       <c r="K351" s="20" t="s">
@@ -10488,7 +10494,7 @@
       <c r="D352" s="39"/>
       <c r="E352" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.643999999999949</v>
+        <v>32.143999999999949</v>
       </c>
       <c r="F352" s="20"/>
       <c r="G352" s="13">
@@ -10499,7 +10505,7 @@
       </c>
       <c r="I352" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>142</v>
+        <v>148.5</v>
       </c>
       <c r="J352" s="11"/>
       <c r="K352" s="20" t="s">
@@ -10517,7 +10523,7 @@
       </c>
       <c r="E353" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.643999999999949</v>
+        <v>32.143999999999949</v>
       </c>
       <c r="F353" s="20"/>
       <c r="G353" s="13" t="str">
@@ -10527,7 +10533,7 @@
       <c r="H353" s="39"/>
       <c r="I353" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>142</v>
+        <v>148.5</v>
       </c>
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
@@ -14327,13 +14333,15 @@
       <c r="B521" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C521" s="13"/>
+      <c r="C521" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D521" s="39"/>
       <c r="E521" s="9"/>
       <c r="F521" s="20"/>
-      <c r="G521" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G521" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H521" s="39">
         <v>1</v>
@@ -14349,13 +14357,15 @@
         <v>45139</v>
       </c>
       <c r="B522" s="20"/>
-      <c r="C522" s="13"/>
+      <c r="C522" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D522" s="39"/>
       <c r="E522" s="9"/>
       <c r="F522" s="20"/>
-      <c r="G522" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G522" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H522" s="39"/>
       <c r="I522" s="9"/>
@@ -14367,13 +14377,15 @@
         <v>45170</v>
       </c>
       <c r="B523" s="20"/>
-      <c r="C523" s="13"/>
+      <c r="C523" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D523" s="39"/>
       <c r="E523" s="9"/>
       <c r="F523" s="20"/>
-      <c r="G523" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G523" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H523" s="39"/>
       <c r="I523" s="9"/>
@@ -14385,13 +14397,15 @@
         <v>45200</v>
       </c>
       <c r="B524" s="20"/>
-      <c r="C524" s="13"/>
+      <c r="C524" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D524" s="39"/>
       <c r="E524" s="9"/>
       <c r="F524" s="20"/>
-      <c r="G524" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G524" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H524" s="39"/>
       <c r="I524" s="9"/>
@@ -14402,41 +14416,57 @@
       <c r="A525" s="40">
         <v>45231</v>
       </c>
-      <c r="B525" s="20"/>
-      <c r="C525" s="13"/>
-      <c r="D525" s="39"/>
+      <c r="B525" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C525" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D525" s="39">
+        <v>3</v>
+      </c>
       <c r="E525" s="9"/>
       <c r="F525" s="20"/>
-      <c r="G525" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G525" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H525" s="39"/>
       <c r="I525" s="9"/>
       <c r="J525" s="11"/>
-      <c r="K525" s="20"/>
+      <c r="K525" s="20" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>45261</v>
       </c>
-      <c r="B526" s="20"/>
-      <c r="C526" s="13"/>
+      <c r="B526" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C526" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D526" s="39"/>
       <c r="E526" s="9"/>
       <c r="F526" s="20"/>
-      <c r="G526" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H526" s="39"/>
+      <c r="G526" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H526" s="39">
+        <v>1</v>
+      </c>
       <c r="I526" s="9"/>
       <c r="J526" s="11"/>
-      <c r="K526" s="20"/>
+      <c r="K526" s="49">
+        <v>45279</v>
+      </c>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A527" s="40">
-        <v>45292</v>
+      <c r="A527" s="48" t="s">
+        <v>415</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -14454,7 +14484,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -14472,7 +14502,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -14490,7 +14520,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -14508,7 +14538,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -14526,7 +14556,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -14544,7 +14574,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -14562,7 +14592,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -14580,7 +14610,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -14598,7 +14628,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -14616,7 +14646,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -14634,7 +14664,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -14652,7 +14682,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -14670,7 +14700,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -14688,7 +14718,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -14706,7 +14736,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -14724,7 +14754,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -14742,7 +14772,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -14760,7 +14790,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -14778,7 +14808,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -14796,7 +14826,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -14814,7 +14844,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -14832,7 +14862,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -14850,7 +14880,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -14867,7 +14897,9 @@
       <c r="K550" s="20"/>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A551" s="40"/>
+      <c r="A551" s="40">
+        <v>45992</v>
+      </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
       <c r="D551" s="39"/>
@@ -15107,20 +15139,36 @@
       <c r="K565" s="20"/>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A566" s="41"/>
-      <c r="B566" s="15"/>
-      <c r="C566" s="42"/>
-      <c r="D566" s="43"/>
+      <c r="A566" s="40"/>
+      <c r="B566" s="20"/>
+      <c r="C566" s="13"/>
+      <c r="D566" s="39"/>
       <c r="E566" s="9"/>
-      <c r="F566" s="15"/>
-      <c r="G566" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H566" s="43"/>
+      <c r="F566" s="20"/>
+      <c r="G566" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H566" s="39"/>
       <c r="I566" s="9"/>
-      <c r="J566" s="12"/>
-      <c r="K566" s="15"/>
+      <c r="J566" s="11"/>
+      <c r="K566" s="20"/>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A567" s="41"/>
+      <c r="B567" s="15"/>
+      <c r="C567" s="42"/>
+      <c r="D567" s="43"/>
+      <c r="E567" s="9"/>
+      <c r="F567" s="15"/>
+      <c r="G567" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H567" s="43"/>
+      <c r="I567" s="9"/>
+      <c r="J567" s="12"/>
+      <c r="K567" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15287,7 +15335,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>169.64399999999995</v>
+        <v>180.64399999999995</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CHO/CRIZALDO, THELMA.xlsx
+++ b/REGULAR/CHO/CRIZALDO, THELMA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="424">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1284,6 +1284,27 @@
   </si>
   <si>
     <t>12/27-29/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-43)</t>
+  </si>
+  <si>
+    <t>UT(0-0-29)</t>
+  </si>
+  <si>
+    <t>UT(0-0-3)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>7/19-21/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-26)</t>
+  </si>
+  <si>
+    <t>UT(0-0-12)</t>
   </si>
 </sst>
 </file>
@@ -1990,8 +2011,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K567" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K567"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K572" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K572"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2320,12 +2341,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K567"/>
+  <dimension ref="A2:K572"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A505" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A508" activePane="bottomLeft"/>
       <selection activeCell="F9" sqref="F9"/>
-      <selection pane="bottomLeft" activeCell="I518" sqref="I518"/>
+      <selection pane="bottomLeft" activeCell="E522" sqref="E522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2488,7 +2509,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>32.143999999999949</v>
+        <v>28.770000000000039</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -10203,7 +10224,7 @@
       </c>
       <c r="E341" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>32.143999999999949</v>
+        <v>28.770000000000039</v>
       </c>
       <c r="F341" s="20"/>
       <c r="G341" s="13" t="str">
@@ -10281,7 +10302,7 @@
       </c>
       <c r="E344" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>32.143999999999949</v>
+        <v>28.770000000000039</v>
       </c>
       <c r="F344" s="20"/>
       <c r="G344" s="13" t="str">
@@ -10332,7 +10353,7 @@
       <c r="D346" s="39"/>
       <c r="E346" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>32.143999999999949</v>
+        <v>28.770000000000039</v>
       </c>
       <c r="F346" s="20"/>
       <c r="G346" s="13" t="str">
@@ -10362,7 +10383,7 @@
       </c>
       <c r="E347" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>32.143999999999949</v>
+        <v>28.770000000000039</v>
       </c>
       <c r="F347" s="20"/>
       <c r="G347" s="13" t="str">
@@ -10415,7 +10436,7 @@
       </c>
       <c r="E349" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>32.143999999999949</v>
+        <v>28.770000000000039</v>
       </c>
       <c r="F349" s="20"/>
       <c r="G349" s="13" t="str">
@@ -10466,7 +10487,7 @@
       <c r="D351" s="39"/>
       <c r="E351" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>32.143999999999949</v>
+        <v>28.770000000000039</v>
       </c>
       <c r="F351" s="20"/>
       <c r="G351" s="13" t="str">
@@ -10494,7 +10515,7 @@
       <c r="D352" s="39"/>
       <c r="E352" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>32.143999999999949</v>
+        <v>28.770000000000039</v>
       </c>
       <c r="F352" s="20"/>
       <c r="G352" s="13">
@@ -10523,7 +10544,7 @@
       </c>
       <c r="E353" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>32.143999999999949</v>
+        <v>28.770000000000039</v>
       </c>
       <c r="F353" s="20"/>
       <c r="G353" s="13" t="str">
@@ -14284,11 +14305,15 @@
       <c r="A519" s="40">
         <v>45047</v>
       </c>
-      <c r="B519" s="20"/>
+      <c r="B519" s="20" t="s">
+        <v>423</v>
+      </c>
       <c r="C519" s="13">
         <v>1.25</v>
       </c>
-      <c r="D519" s="39"/>
+      <c r="D519" s="39">
+        <v>2.5000000000000008E-2</v>
+      </c>
       <c r="E519" s="9"/>
       <c r="F519" s="20"/>
       <c r="G519" s="13">
@@ -14327,36 +14352,32 @@
       </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A521" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C521" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D521" s="39"/>
+        <v>418</v>
+      </c>
+      <c r="C521" s="13"/>
+      <c r="D521" s="39">
+        <v>6.0000000000000019E-2</v>
+      </c>
       <c r="E521" s="9"/>
       <c r="F521" s="20"/>
-      <c r="G521" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H521" s="39">
-        <v>1</v>
-      </c>
+      <c r="G521" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H521" s="39"/>
       <c r="I521" s="9"/>
       <c r="J521" s="11"/>
-      <c r="K521" s="49">
-        <v>45110</v>
-      </c>
+      <c r="K521" s="20"/>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B522" s="20"/>
+        <v>45108</v>
+      </c>
+      <c r="B522" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C522" s="13">
         <v>1.25</v>
       </c>
@@ -14367,63 +14388,69 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H522" s="39"/>
+      <c r="H522" s="39">
+        <v>1</v>
+      </c>
       <c r="I522" s="9"/>
       <c r="J522" s="11"/>
-      <c r="K522" s="20"/>
+      <c r="K522" s="49">
+        <v>45110</v>
+      </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A523" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B523" s="20"/>
-      <c r="C523" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D523" s="39"/>
+      <c r="A523" s="40"/>
+      <c r="B523" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="C523" s="13"/>
+      <c r="D523" s="39">
+        <v>3</v>
+      </c>
       <c r="E523" s="9"/>
       <c r="F523" s="20"/>
-      <c r="G523" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G523" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H523" s="39"/>
       <c r="I523" s="9"/>
       <c r="J523" s="11"/>
-      <c r="K523" s="20"/>
+      <c r="K523" s="49" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A524" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B524" s="20"/>
-      <c r="C524" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D524" s="39"/>
+      <c r="A524" s="40"/>
+      <c r="B524" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="C524" s="13"/>
+      <c r="D524" s="39">
+        <v>5.4000000000000013E-2</v>
+      </c>
       <c r="E524" s="9"/>
       <c r="F524" s="20"/>
-      <c r="G524" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G524" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H524" s="39"/>
       <c r="I524" s="9"/>
       <c r="J524" s="11"/>
-      <c r="K524" s="20"/>
+      <c r="K524" s="49"/>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>45231</v>
+        <v>45139</v>
       </c>
       <c r="B525" s="20" t="s">
-        <v>282</v>
+        <v>126</v>
       </c>
       <c r="C525" s="13">
         <v>1.25</v>
       </c>
       <c r="D525" s="39">
-        <v>3</v>
+        <v>7.9000000000000015E-2</v>
       </c>
       <c r="E525" s="9"/>
       <c r="F525" s="20"/>
@@ -14434,17 +14461,13 @@
       <c r="H525" s="39"/>
       <c r="I525" s="9"/>
       <c r="J525" s="11"/>
-      <c r="K525" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="K525" s="20"/>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B526" s="20" t="s">
-        <v>45</v>
-      </c>
+        <v>45170</v>
+      </c>
+      <c r="B526" s="20"/>
       <c r="C526" s="13">
         <v>1.25</v>
       </c>
@@ -14455,27 +14478,29 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H526" s="39">
-        <v>1</v>
-      </c>
+      <c r="H526" s="39"/>
       <c r="I526" s="9"/>
       <c r="J526" s="11"/>
-      <c r="K526" s="49">
-        <v>45279</v>
-      </c>
+      <c r="K526" s="20"/>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A527" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="B527" s="20"/>
-      <c r="C527" s="13"/>
-      <c r="D527" s="39"/>
+      <c r="A527" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B527" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="C527" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D527" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E527" s="9"/>
       <c r="F527" s="20"/>
-      <c r="G527" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G527" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H527" s="39"/>
       <c r="I527" s="9"/>
@@ -14484,29 +14509,39 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B528" s="20"/>
-      <c r="C528" s="13"/>
-      <c r="D528" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B528" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C528" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D528" s="39">
+        <v>3</v>
+      </c>
       <c r="E528" s="9"/>
       <c r="F528" s="20"/>
-      <c r="G528" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G528" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H528" s="39"/>
       <c r="I528" s="9"/>
       <c r="J528" s="11"/>
-      <c r="K528" s="20"/>
+      <c r="K528" s="20" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A529" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B529" s="20"/>
+      <c r="A529" s="40"/>
+      <c r="B529" s="20" t="s">
+        <v>418</v>
+      </c>
       <c r="C529" s="13"/>
-      <c r="D529" s="39"/>
+      <c r="D529" s="39">
+        <v>6.0000000000000019E-2</v>
+      </c>
       <c r="E529" s="9"/>
       <c r="F529" s="20"/>
       <c r="G529" s="13" t="str">
@@ -14520,29 +14555,39 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B530" s="20"/>
-      <c r="C530" s="13"/>
+        <v>45261</v>
+      </c>
+      <c r="B530" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C530" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D530" s="39"/>
       <c r="E530" s="9"/>
       <c r="F530" s="20"/>
-      <c r="G530" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H530" s="39"/>
+      <c r="G530" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H530" s="39">
+        <v>1</v>
+      </c>
       <c r="I530" s="9"/>
       <c r="J530" s="11"/>
-      <c r="K530" s="20"/>
+      <c r="K530" s="49">
+        <v>45279</v>
+      </c>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A531" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B531" s="20"/>
+      <c r="A531" s="40"/>
+      <c r="B531" s="20" t="s">
+        <v>417</v>
+      </c>
       <c r="C531" s="13"/>
-      <c r="D531" s="39"/>
+      <c r="D531" s="39">
+        <v>0.09</v>
+      </c>
       <c r="E531" s="9"/>
       <c r="F531" s="20"/>
       <c r="G531" s="13" t="str">
@@ -14552,11 +14597,11 @@
       <c r="H531" s="39"/>
       <c r="I531" s="9"/>
       <c r="J531" s="11"/>
-      <c r="K531" s="20"/>
+      <c r="K531" s="49"/>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A532" s="40">
-        <v>45413</v>
+      <c r="A532" s="48" t="s">
+        <v>415</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -14574,7 +14619,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>45444</v>
+        <v>45292</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -14592,7 +14637,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>45474</v>
+        <v>45323</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -14610,7 +14655,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>45505</v>
+        <v>45352</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -14628,7 +14673,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>45536</v>
+        <v>45383</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -14646,7 +14691,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>45566</v>
+        <v>45413</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -14664,7 +14709,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>45597</v>
+        <v>45444</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -14682,7 +14727,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>45627</v>
+        <v>45474</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -14700,7 +14745,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>45658</v>
+        <v>45505</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -14718,7 +14763,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>45689</v>
+        <v>45536</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -14736,7 +14781,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>45717</v>
+        <v>45566</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -14754,7 +14799,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>45748</v>
+        <v>45597</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -14772,7 +14817,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>45778</v>
+        <v>45627</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -14790,7 +14835,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>45809</v>
+        <v>45658</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -14808,7 +14853,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>45839</v>
+        <v>45689</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -14826,7 +14871,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>45870</v>
+        <v>45717</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -14844,7 +14889,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>45901</v>
+        <v>45748</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -14862,7 +14907,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>45931</v>
+        <v>45778</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -14880,7 +14925,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>45962</v>
+        <v>45809</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -14898,7 +14943,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>45992</v>
+        <v>45839</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -14915,7 +14960,9 @@
       <c r="K551" s="20"/>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A552" s="40"/>
+      <c r="A552" s="40">
+        <v>45870</v>
+      </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
       <c r="D552" s="39"/>
@@ -14931,7 +14978,9 @@
       <c r="K552" s="20"/>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A553" s="40"/>
+      <c r="A553" s="40">
+        <v>45901</v>
+      </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
       <c r="D553" s="39"/>
@@ -14947,7 +14996,9 @@
       <c r="K553" s="20"/>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A554" s="40"/>
+      <c r="A554" s="40">
+        <v>45931</v>
+      </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
       <c r="D554" s="39"/>
@@ -14963,7 +15014,9 @@
       <c r="K554" s="20"/>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A555" s="40"/>
+      <c r="A555" s="40">
+        <v>45962</v>
+      </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
       <c r="D555" s="39"/>
@@ -14979,7 +15032,9 @@
       <c r="K555" s="20"/>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A556" s="40"/>
+      <c r="A556" s="40">
+        <v>45992</v>
+      </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
       <c r="D556" s="39"/>
@@ -15155,20 +15210,100 @@
       <c r="K566" s="20"/>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A567" s="41"/>
-      <c r="B567" s="15"/>
-      <c r="C567" s="42"/>
-      <c r="D567" s="43"/>
+      <c r="A567" s="40"/>
+      <c r="B567" s="20"/>
+      <c r="C567" s="13"/>
+      <c r="D567" s="39"/>
       <c r="E567" s="9"/>
-      <c r="F567" s="15"/>
-      <c r="G567" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H567" s="43"/>
+      <c r="F567" s="20"/>
+      <c r="G567" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H567" s="39"/>
       <c r="I567" s="9"/>
-      <c r="J567" s="12"/>
-      <c r="K567" s="15"/>
+      <c r="J567" s="11"/>
+      <c r="K567" s="20"/>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A568" s="40"/>
+      <c r="B568" s="20"/>
+      <c r="C568" s="13"/>
+      <c r="D568" s="39"/>
+      <c r="E568" s="9"/>
+      <c r="F568" s="20"/>
+      <c r="G568" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H568" s="39"/>
+      <c r="I568" s="9"/>
+      <c r="J568" s="11"/>
+      <c r="K568" s="20"/>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A569" s="40"/>
+      <c r="B569" s="20"/>
+      <c r="C569" s="13"/>
+      <c r="D569" s="39"/>
+      <c r="E569" s="9"/>
+      <c r="F569" s="20"/>
+      <c r="G569" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H569" s="39"/>
+      <c r="I569" s="9"/>
+      <c r="J569" s="11"/>
+      <c r="K569" s="20"/>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A570" s="40"/>
+      <c r="B570" s="20"/>
+      <c r="C570" s="13"/>
+      <c r="D570" s="39"/>
+      <c r="E570" s="9"/>
+      <c r="F570" s="20"/>
+      <c r="G570" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H570" s="39"/>
+      <c r="I570" s="9"/>
+      <c r="J570" s="11"/>
+      <c r="K570" s="20"/>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A571" s="40"/>
+      <c r="B571" s="20"/>
+      <c r="C571" s="13"/>
+      <c r="D571" s="39"/>
+      <c r="E571" s="9"/>
+      <c r="F571" s="20"/>
+      <c r="G571" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H571" s="39"/>
+      <c r="I571" s="9"/>
+      <c r="J571" s="11"/>
+      <c r="K571" s="20"/>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A572" s="41"/>
+      <c r="B572" s="15"/>
+      <c r="C572" s="42"/>
+      <c r="D572" s="43"/>
+      <c r="E572" s="9"/>
+      <c r="F572" s="15"/>
+      <c r="G572" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H572" s="43"/>
+      <c r="I572" s="9"/>
+      <c r="J572" s="12"/>
+      <c r="K572" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15282,11 +15417,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.11200000000000002</v>
+        <v>2.5000000000000008E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -15335,7 +15470,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>180.64399999999995</v>
+        <v>177.27000000000004</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CHO/CRIZALDO, THELMA.xlsx
+++ b/REGULAR/CHO/CRIZALDO, THELMA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="426">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1305,6 +1305,12 @@
   </si>
   <si>
     <t>UT(0-0-12)</t>
+  </si>
+  <si>
+    <t>UT(0-0-55)</t>
+  </si>
+  <si>
+    <t>UT(0-0-48)</t>
   </si>
 </sst>
 </file>
@@ -2011,8 +2017,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K572" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K572"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K573" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K573"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2341,12 +2347,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K572"/>
+  <dimension ref="A2:K573"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A508" activePane="bottomLeft"/>
       <selection activeCell="F9" sqref="F9"/>
-      <selection pane="bottomLeft" activeCell="E522" sqref="E522"/>
+      <selection pane="bottomLeft" activeCell="D525" sqref="D525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2509,7 +2515,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.770000000000039</v>
+        <v>27.555000000000007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -10224,7 +10230,7 @@
       </c>
       <c r="E341" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.770000000000039</v>
+        <v>27.555000000000007</v>
       </c>
       <c r="F341" s="20"/>
       <c r="G341" s="13" t="str">
@@ -10302,7 +10308,7 @@
       </c>
       <c r="E344" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.770000000000039</v>
+        <v>27.555000000000007</v>
       </c>
       <c r="F344" s="20"/>
       <c r="G344" s="13" t="str">
@@ -10353,7 +10359,7 @@
       <c r="D346" s="39"/>
       <c r="E346" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.770000000000039</v>
+        <v>27.555000000000007</v>
       </c>
       <c r="F346" s="20"/>
       <c r="G346" s="13" t="str">
@@ -10383,7 +10389,7 @@
       </c>
       <c r="E347" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.770000000000039</v>
+        <v>27.555000000000007</v>
       </c>
       <c r="F347" s="20"/>
       <c r="G347" s="13" t="str">
@@ -10436,7 +10442,7 @@
       </c>
       <c r="E349" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.770000000000039</v>
+        <v>27.555000000000007</v>
       </c>
       <c r="F349" s="20"/>
       <c r="G349" s="13" t="str">
@@ -10487,7 +10493,7 @@
       <c r="D351" s="39"/>
       <c r="E351" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.770000000000039</v>
+        <v>27.555000000000007</v>
       </c>
       <c r="F351" s="20"/>
       <c r="G351" s="13" t="str">
@@ -10515,7 +10521,7 @@
       <c r="D352" s="39"/>
       <c r="E352" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.770000000000039</v>
+        <v>27.555000000000007</v>
       </c>
       <c r="F352" s="20"/>
       <c r="G352" s="13">
@@ -10544,7 +10550,7 @@
       </c>
       <c r="E353" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.770000000000039</v>
+        <v>27.555000000000007</v>
       </c>
       <c r="F353" s="20"/>
       <c r="G353" s="13" t="str">
@@ -14219,11 +14225,15 @@
       <c r="A515" s="40">
         <v>44927</v>
       </c>
-      <c r="B515" s="20"/>
+      <c r="B515" s="20" t="s">
+        <v>425</v>
+      </c>
       <c r="C515" s="13">
         <v>1.25</v>
       </c>
-      <c r="D515" s="39"/>
+      <c r="D515" s="39">
+        <v>0.1</v>
+      </c>
       <c r="E515" s="9"/>
       <c r="F515" s="20"/>
       <c r="G515" s="13">
@@ -14239,11 +14249,15 @@
       <c r="A516" s="40">
         <v>44958</v>
       </c>
-      <c r="B516" s="20"/>
+      <c r="B516" s="20" t="s">
+        <v>424</v>
+      </c>
       <c r="C516" s="13">
         <v>1.25</v>
       </c>
-      <c r="D516" s="39"/>
+      <c r="D516" s="39">
+        <v>0.115</v>
+      </c>
       <c r="E516" s="9"/>
       <c r="F516" s="20"/>
       <c r="G516" s="13">
@@ -14282,38 +14296,36 @@
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A518" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B518" s="20"/>
-      <c r="C518" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D518" s="39"/>
+      <c r="A518" s="40"/>
+      <c r="B518" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="C518" s="13"/>
+      <c r="D518" s="39">
+        <v>1</v>
+      </c>
       <c r="E518" s="9"/>
       <c r="F518" s="20"/>
-      <c r="G518" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G518" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H518" s="39"/>
       <c r="I518" s="9"/>
       <c r="J518" s="11"/>
-      <c r="K518" s="20"/>
+      <c r="K518" s="49">
+        <v>44986</v>
+      </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B519" s="20" t="s">
-        <v>423</v>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="B519" s="20"/>
       <c r="C519" s="13">
         <v>1.25</v>
       </c>
-      <c r="D519" s="39">
-        <v>2.5000000000000008E-2</v>
-      </c>
+      <c r="D519" s="39"/>
       <c r="E519" s="9"/>
       <c r="F519" s="20"/>
       <c r="G519" s="13">
@@ -14327,16 +14339,16 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B520" s="20" t="s">
-        <v>53</v>
+        <v>423</v>
       </c>
       <c r="C520" s="13">
         <v>1.25</v>
       </c>
       <c r="D520" s="39">
-        <v>2</v>
+        <v>2.5000000000000008E-2</v>
       </c>
       <c r="E520" s="9"/>
       <c r="F520" s="20"/>
@@ -14347,86 +14359,88 @@
       <c r="H520" s="39"/>
       <c r="I520" s="9"/>
       <c r="J520" s="11"/>
-      <c r="K520" s="20" t="s">
-        <v>406</v>
-      </c>
+      <c r="K520" s="20"/>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A521" s="40"/>
+      <c r="A521" s="40">
+        <v>45078</v>
+      </c>
       <c r="B521" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="C521" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="C521" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D521" s="39">
-        <v>6.0000000000000019E-2</v>
+        <v>2</v>
       </c>
       <c r="E521" s="9"/>
       <c r="F521" s="20"/>
-      <c r="G521" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G521" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H521" s="39"/>
       <c r="I521" s="9"/>
       <c r="J521" s="11"/>
-      <c r="K521" s="20"/>
+      <c r="K521" s="20" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A522" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C522" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D522" s="39"/>
+        <v>418</v>
+      </c>
+      <c r="C522" s="13"/>
+      <c r="D522" s="39">
+        <v>6.0000000000000019E-2</v>
+      </c>
       <c r="E522" s="9"/>
       <c r="F522" s="20"/>
-      <c r="G522" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H522" s="39">
-        <v>1</v>
-      </c>
+      <c r="G522" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H522" s="39"/>
       <c r="I522" s="9"/>
       <c r="J522" s="11"/>
-      <c r="K522" s="49">
-        <v>45110</v>
-      </c>
+      <c r="K522" s="20"/>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A523" s="40"/>
+      <c r="A523" s="40">
+        <v>45108</v>
+      </c>
       <c r="B523" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="C523" s="13"/>
-      <c r="D523" s="39">
-        <v>3</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C523" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D523" s="39"/>
       <c r="E523" s="9"/>
       <c r="F523" s="20"/>
-      <c r="G523" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H523" s="39"/>
+      <c r="G523" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H523" s="39">
+        <v>1</v>
+      </c>
       <c r="I523" s="9"/>
       <c r="J523" s="11"/>
-      <c r="K523" s="49" t="s">
-        <v>421</v>
+      <c r="K523" s="49">
+        <v>45110</v>
       </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C524" s="13"/>
       <c r="D524" s="39">
-        <v>5.4000000000000013E-2</v>
+        <v>3</v>
       </c>
       <c r="E524" s="9"/>
       <c r="F524" s="20"/>
@@ -14437,41 +14451,43 @@
       <c r="H524" s="39"/>
       <c r="I524" s="9"/>
       <c r="J524" s="11"/>
-      <c r="K524" s="49"/>
+      <c r="K524" s="49" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A525" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C525" s="13">
-        <v>1.25</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="C525" s="13"/>
       <c r="D525" s="39">
-        <v>7.9000000000000015E-2</v>
+        <v>5.4000000000000013E-2</v>
       </c>
       <c r="E525" s="9"/>
       <c r="F525" s="20"/>
-      <c r="G525" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G525" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H525" s="39"/>
       <c r="I525" s="9"/>
       <c r="J525" s="11"/>
-      <c r="K525" s="20"/>
+      <c r="K525" s="49"/>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B526" s="20"/>
+        <v>45139</v>
+      </c>
+      <c r="B526" s="20" t="s">
+        <v>126</v>
+      </c>
       <c r="C526" s="13">
         <v>1.25</v>
       </c>
-      <c r="D526" s="39"/>
+      <c r="D526" s="39">
+        <v>7.9000000000000015E-2</v>
+      </c>
       <c r="E526" s="9"/>
       <c r="F526" s="20"/>
       <c r="G526" s="13">
@@ -14485,17 +14501,13 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B527" s="20" t="s">
-        <v>419</v>
-      </c>
+        <v>45170</v>
+      </c>
+      <c r="B527" s="20"/>
       <c r="C527" s="13">
         <v>1.25</v>
       </c>
-      <c r="D527" s="39">
-        <v>6.0000000000000001E-3</v>
-      </c>
+      <c r="D527" s="39"/>
       <c r="E527" s="9"/>
       <c r="F527" s="20"/>
       <c r="G527" s="13">
@@ -14509,16 +14521,16 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B528" s="20" t="s">
-        <v>282</v>
+        <v>419</v>
       </c>
       <c r="C528" s="13">
         <v>1.25</v>
       </c>
       <c r="D528" s="39">
-        <v>3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E528" s="9"/>
       <c r="F528" s="20"/>
@@ -14529,83 +14541,89 @@
       <c r="H528" s="39"/>
       <c r="I528" s="9"/>
       <c r="J528" s="11"/>
-      <c r="K528" s="20" t="s">
-        <v>416</v>
-      </c>
+      <c r="K528" s="20"/>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A529" s="40"/>
+      <c r="A529" s="40">
+        <v>45231</v>
+      </c>
       <c r="B529" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="C529" s="13"/>
+        <v>282</v>
+      </c>
+      <c r="C529" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D529" s="39">
-        <v>6.0000000000000019E-2</v>
+        <v>3</v>
       </c>
       <c r="E529" s="9"/>
       <c r="F529" s="20"/>
-      <c r="G529" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G529" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H529" s="39"/>
       <c r="I529" s="9"/>
       <c r="J529" s="11"/>
-      <c r="K529" s="20"/>
+      <c r="K529" s="20" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A530" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C530" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D530" s="39"/>
+        <v>418</v>
+      </c>
+      <c r="C530" s="13"/>
+      <c r="D530" s="39">
+        <v>6.0000000000000019E-2</v>
+      </c>
       <c r="E530" s="9"/>
       <c r="F530" s="20"/>
-      <c r="G530" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H530" s="39">
-        <v>1</v>
-      </c>
+      <c r="G530" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H530" s="39"/>
       <c r="I530" s="9"/>
       <c r="J530" s="11"/>
-      <c r="K530" s="49">
-        <v>45279</v>
-      </c>
+      <c r="K530" s="20"/>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A531" s="40"/>
+      <c r="A531" s="40">
+        <v>45261</v>
+      </c>
       <c r="B531" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="C531" s="13"/>
-      <c r="D531" s="39">
-        <v>0.09</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C531" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D531" s="39"/>
       <c r="E531" s="9"/>
       <c r="F531" s="20"/>
-      <c r="G531" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H531" s="39"/>
+      <c r="G531" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H531" s="39">
+        <v>1</v>
+      </c>
       <c r="I531" s="9"/>
       <c r="J531" s="11"/>
-      <c r="K531" s="49"/>
+      <c r="K531" s="49">
+        <v>45279</v>
+      </c>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A532" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="B532" s="20"/>
+      <c r="A532" s="40"/>
+      <c r="B532" s="20" t="s">
+        <v>417</v>
+      </c>
       <c r="C532" s="13"/>
-      <c r="D532" s="39"/>
+      <c r="D532" s="39">
+        <v>0.09</v>
+      </c>
       <c r="E532" s="9"/>
       <c r="F532" s="20"/>
       <c r="G532" s="13" t="str">
@@ -14615,11 +14633,11 @@
       <c r="H532" s="39"/>
       <c r="I532" s="9"/>
       <c r="J532" s="11"/>
-      <c r="K532" s="20"/>
+      <c r="K532" s="49"/>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A533" s="40">
-        <v>45292</v>
+      <c r="A533" s="48" t="s">
+        <v>415</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -14637,7 +14655,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -14655,7 +14673,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -14673,7 +14691,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -14691,7 +14709,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -14709,7 +14727,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -14727,7 +14745,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -14745,7 +14763,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -14763,7 +14781,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -14781,7 +14799,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -14799,7 +14817,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -14817,7 +14835,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -14835,7 +14853,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -14853,7 +14871,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -14871,7 +14889,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -14889,7 +14907,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -14907,7 +14925,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -14925,7 +14943,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -14943,7 +14961,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -14961,7 +14979,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -14979,7 +14997,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -14997,7 +15015,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15015,7 +15033,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15033,7 +15051,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15050,7 +15068,9 @@
       <c r="K556" s="20"/>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A557" s="40"/>
+      <c r="A557" s="40">
+        <v>45992</v>
+      </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
       <c r="D557" s="39"/>
@@ -15290,20 +15310,36 @@
       <c r="K571" s="20"/>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A572" s="41"/>
-      <c r="B572" s="15"/>
-      <c r="C572" s="42"/>
-      <c r="D572" s="43"/>
+      <c r="A572" s="40"/>
+      <c r="B572" s="20"/>
+      <c r="C572" s="13"/>
+      <c r="D572" s="39"/>
       <c r="E572" s="9"/>
-      <c r="F572" s="15"/>
-      <c r="G572" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H572" s="43"/>
+      <c r="F572" s="20"/>
+      <c r="G572" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H572" s="39"/>
       <c r="I572" s="9"/>
-      <c r="J572" s="12"/>
-      <c r="K572" s="15"/>
+      <c r="J572" s="11"/>
+      <c r="K572" s="20"/>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A573" s="41"/>
+      <c r="B573" s="15"/>
+      <c r="C573" s="42"/>
+      <c r="D573" s="43"/>
+      <c r="E573" s="9"/>
+      <c r="F573" s="15"/>
+      <c r="G573" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H573" s="43"/>
+      <c r="I573" s="9"/>
+      <c r="J573" s="12"/>
+      <c r="K573" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15417,11 +15453,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.5000000000000008E-2</v>
+        <v>0.1</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -15470,7 +15506,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>177.27000000000004</v>
+        <v>176.05500000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CHO/CRIZALDO, THELMA.xlsx
+++ b/REGULAR/CHO/CRIZALDO, THELMA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CHO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79507BDC-A3B4-4B05-A544-9E0EFD27B93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1316,7 +1317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2000,7 +2001,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2017,26 +2018,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K573" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K573"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K573" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K573" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2343,34 +2344,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K573"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A508" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A528" activePane="bottomLeft"/>
       <selection activeCell="F9" sqref="F9"/>
-      <selection pane="bottomLeft" activeCell="D525" sqref="D525"/>
+      <selection pane="bottomLeft" activeCell="C535" sqref="C535"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2391,7 +2392,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2411,7 +2412,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2433,7 +2434,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2441,7 +2442,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2454,7 +2455,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -2471,7 +2472,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2515,7 +2516,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.555000000000007</v>
+        <v>28.805000000000007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2525,12 +2526,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>148.5</v>
+        <v>149.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>72</v>
       </c>
@@ -2549,7 +2550,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>36161</v>
       </c>
@@ -2567,10 +2568,10 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
-        <f>EDATE(A11,1)</f>
-        <v>36192</v>
+        <f>EOMONTH(A11,1)</f>
+        <v>36219</v>
       </c>
       <c r="B12" s="51"/>
       <c r="C12" s="13"/>
@@ -2586,10 +2587,10 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
-        <f t="shared" ref="A13:A112" si="0">EDATE(A12,1)</f>
-        <v>36220</v>
+        <f>EOMONTH(A12,1)</f>
+        <v>36250</v>
       </c>
       <c r="B13" s="51"/>
       <c r="C13" s="13"/>
@@ -2605,10 +2606,10 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
-        <f t="shared" si="0"/>
-        <v>36251</v>
+        <f>EOMONTH(A13,1)</f>
+        <v>36280</v>
       </c>
       <c r="B14" s="51"/>
       <c r="C14" s="13"/>
@@ -2624,10 +2625,10 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
-        <f t="shared" si="0"/>
-        <v>36281</v>
+        <f>EOMONTH(A14,1)</f>
+        <v>36311</v>
       </c>
       <c r="B15" s="51"/>
       <c r="C15" s="13"/>
@@ -2643,10 +2644,10 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
-        <f t="shared" si="0"/>
-        <v>36312</v>
+        <f>EOMONTH(A15,1)</f>
+        <v>36341</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="13"/>
@@ -2662,10 +2663,10 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
-        <f t="shared" si="0"/>
-        <v>36342</v>
+        <f>EOMONTH(A16,1)</f>
+        <v>36372</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="13">
@@ -2683,10 +2684,10 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
-        <f>EDATE(A17,1)</f>
-        <v>36373</v>
+        <f>EOMONTH(A17,1)</f>
+        <v>36403</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>45</v>
@@ -2710,7 +2711,7 @@
         <v>36258</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
       <c r="B19" s="20" t="s">
         <v>91</v>
@@ -2730,10 +2731,10 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
-        <f>EDATE(A18,1)</f>
-        <v>36404</v>
+        <f>EOMONTH(A18,1)</f>
+        <v>36433</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>46</v>
@@ -2757,7 +2758,7 @@
         <v>36228</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>92</v>
@@ -2777,10 +2778,10 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
-        <f>EDATE(A20,1)</f>
-        <v>36434</v>
+        <f>EOMONTH(A20,1)</f>
+        <v>36464</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>45</v>
@@ -2804,7 +2805,7 @@
         <v>36473</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>93</v>
@@ -2824,10 +2825,10 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
-        <f>EDATE(A22,1)</f>
-        <v>36465</v>
+        <f>EOMONTH(A22,1)</f>
+        <v>36494</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>45</v>
@@ -2851,7 +2852,7 @@
         <v>36261</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>94</v>
@@ -2871,10 +2872,10 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
-        <f>EDATE(A24,1)</f>
-        <v>36495</v>
+        <f>EOMONTH(A24,1)</f>
+        <v>36525</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>95</v>
@@ -2896,7 +2897,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
         <v>90</v>
       </c>
@@ -2918,10 +2919,10 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
-        <f>EDATE(A26,1)</f>
-        <v>36526</v>
+        <f>EOMONTH(A26,1)</f>
+        <v>36556</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>96</v>
@@ -2943,10 +2944,10 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
-        <f t="shared" si="0"/>
-        <v>36557</v>
+        <f>EOMONTH(A28,1)</f>
+        <v>36585</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>45</v>
@@ -2970,7 +2971,7 @@
         <v>36618</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>97</v>
@@ -2990,10 +2991,10 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
-        <f>EDATE(A29,1)</f>
-        <v>36586</v>
+        <f>EOMONTH(A29,1)</f>
+        <v>36616</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>45</v>
@@ -3017,7 +3018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="20" t="s">
         <v>98</v>
@@ -3037,10 +3038,10 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
-        <f>EDATE(A31,1)</f>
-        <v>36617</v>
+        <f>EOMONTH(A31,1)</f>
+        <v>36646</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>97</v>
@@ -3062,10 +3063,10 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
-        <f t="shared" si="0"/>
-        <v>36647</v>
+        <f>EOMONTH(A33,1)</f>
+        <v>36677</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>45</v>
@@ -3089,7 +3090,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>99</v>
@@ -3109,10 +3110,10 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
-        <f>EDATE(A34,1)</f>
-        <v>36678</v>
+        <f>EOMONTH(A34,1)</f>
+        <v>36707</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>102</v>
@@ -3134,10 +3135,10 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
-        <f t="shared" si="0"/>
-        <v>36708</v>
+        <f>EOMONTH(A36,1)</f>
+        <v>36738</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>103</v>
@@ -3159,10 +3160,10 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
-        <f t="shared" si="0"/>
-        <v>36739</v>
+        <f>EOMONTH(A37,1)</f>
+        <v>36769</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>47</v>
@@ -3186,7 +3187,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>104</v>
@@ -3206,10 +3207,10 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
-        <f>EDATE(A38,1)</f>
-        <v>36770</v>
+        <f>EOMONTH(A38,1)</f>
+        <v>36799</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>45</v>
@@ -3233,7 +3234,7 @@
         <v>36686</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -3255,7 +3256,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>105</v>
@@ -3275,10 +3276,10 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
-        <f>EDATE(A40,1)</f>
-        <v>36800</v>
+        <f>EOMONTH(A40,1)</f>
+        <v>36830</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>106</v>
@@ -3300,10 +3301,10 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
-        <f t="shared" si="0"/>
-        <v>36831</v>
+        <f>EOMONTH(A43,1)</f>
+        <v>36860</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>45</v>
@@ -3327,7 +3328,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
         <v>107</v>
@@ -3347,10 +3348,10 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
-        <f>EDATE(A44,1)</f>
-        <v>36861</v>
+        <f>EOMONTH(A44,1)</f>
+        <v>36891</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>53</v>
@@ -3374,7 +3375,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>65</v>
@@ -3396,7 +3397,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
       <c r="B48" s="20" t="s">
         <v>108</v>
@@ -3416,7 +3417,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>89</v>
       </c>
@@ -3438,10 +3439,10 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
-        <f>EDATE(A46,1)</f>
-        <v>36892</v>
+        <f>EOMONTH(A46,1)</f>
+        <v>36922</v>
       </c>
       <c r="B50" s="20" t="s">
         <v>114</v>
@@ -3463,10 +3464,10 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <f t="shared" si="0"/>
-        <v>36923</v>
+        <f>EOMONTH(A50,1)</f>
+        <v>36950</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>115</v>
@@ -3488,10 +3489,10 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <f t="shared" si="0"/>
-        <v>36951</v>
+        <f>EOMONTH(A51,1)</f>
+        <v>36981</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>92</v>
@@ -3513,10 +3514,10 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
-        <f t="shared" si="0"/>
-        <v>36982</v>
+        <f>EOMONTH(A52,1)</f>
+        <v>37011</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -3534,10 +3535,10 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
-        <f t="shared" si="0"/>
-        <v>37012</v>
+        <f>EOMONTH(A53,1)</f>
+        <v>37042</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>116</v>
@@ -3559,10 +3560,10 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
-        <f t="shared" si="0"/>
-        <v>37043</v>
+        <f>EOMONTH(A54,1)</f>
+        <v>37072</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>99</v>
@@ -3584,10 +3585,10 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
-        <f t="shared" si="0"/>
-        <v>37073</v>
+        <f>EOMONTH(A55,1)</f>
+        <v>37103</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>45</v>
@@ -3611,7 +3612,7 @@
         <v>37018</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>120</v>
@@ -3631,10 +3632,10 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
-        <f>EDATE(A56,1)</f>
-        <v>37104</v>
+        <f>EOMONTH(A56,1)</f>
+        <v>37134</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>47</v>
@@ -3658,7 +3659,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
         <v>117</v>
@@ -3678,10 +3679,10 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
-        <f>EDATE(A58,1)</f>
-        <v>37135</v>
+        <f>EOMONTH(A58,1)</f>
+        <v>37164</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>122</v>
@@ -3703,10 +3704,10 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
-        <f t="shared" si="0"/>
-        <v>37165</v>
+        <f>EOMONTH(A60,1)</f>
+        <v>37195</v>
       </c>
       <c r="B61" s="20" t="s">
         <v>118</v>
@@ -3728,10 +3729,10 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
-        <f t="shared" si="0"/>
-        <v>37196</v>
+        <f>EOMONTH(A61,1)</f>
+        <v>37225</v>
       </c>
       <c r="B62" s="20" t="s">
         <v>45</v>
@@ -3755,7 +3756,7 @@
         <v>37114</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
         <v>45</v>
@@ -3777,7 +3778,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>119</v>
@@ -3797,10 +3798,10 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
-        <f>EDATE(A62,1)</f>
-        <v>37226</v>
+        <f>EOMONTH(A62,1)</f>
+        <v>37256</v>
       </c>
       <c r="B65" s="20" t="s">
         <v>65</v>
@@ -3824,7 +3825,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23"/>
       <c r="B66" s="20" t="s">
         <v>53</v>
@@ -3846,7 +3847,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23"/>
       <c r="B67" s="20" t="s">
         <v>119</v>
@@ -3866,7 +3867,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="48" t="s">
         <v>88</v>
       </c>
@@ -3890,10 +3891,10 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
-        <f>EDATE(A65,1)</f>
-        <v>37257</v>
+        <f>EOMONTH(A65,1)</f>
+        <v>37287</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>106</v>
@@ -3915,10 +3916,10 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
-        <f t="shared" si="0"/>
-        <v>37288</v>
+        <f>EOMONTH(A69,1)</f>
+        <v>37315</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>126</v>
@@ -3940,10 +3941,10 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
-        <f t="shared" si="0"/>
-        <v>37316</v>
+        <f>EOMONTH(A70,1)</f>
+        <v>37346</v>
       </c>
       <c r="B71" s="20" t="s">
         <v>127</v>
@@ -3965,10 +3966,10 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
-        <f t="shared" si="0"/>
-        <v>37347</v>
+        <f>EOMONTH(A71,1)</f>
+        <v>37376</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>53</v>
@@ -3992,7 +3993,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23"/>
       <c r="B73" s="20" t="s">
         <v>129</v>
@@ -4012,10 +4013,10 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
-        <f>EDATE(A72,1)</f>
-        <v>37377</v>
+        <f>EOMONTH(A72,1)</f>
+        <v>37407</v>
       </c>
       <c r="B74" s="20" t="s">
         <v>45</v>
@@ -4039,7 +4040,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>45</v>
@@ -4061,7 +4062,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
         <v>130</v>
@@ -4081,10 +4082,10 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
-        <f>EDATE(A74,1)</f>
-        <v>37408</v>
+        <f>EOMONTH(A74,1)</f>
+        <v>37437</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4102,10 +4103,10 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
-        <f t="shared" si="0"/>
-        <v>37438</v>
+        <f>EOMONTH(A77,1)</f>
+        <v>37468</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>45</v>
@@ -4129,7 +4130,7 @@
         <v>37567</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23"/>
       <c r="B79" s="20" t="s">
         <v>131</v>
@@ -4149,10 +4150,10 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
-        <f>EDATE(A78,1)</f>
-        <v>37469</v>
+        <f>EOMONTH(A78,1)</f>
+        <v>37499</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4170,10 +4171,10 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
-        <f t="shared" si="0"/>
-        <v>37500</v>
+        <f>EOMONTH(A80,1)</f>
+        <v>37529</v>
       </c>
       <c r="B81" s="20" t="s">
         <v>45</v>
@@ -4197,10 +4198,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
-        <f t="shared" si="0"/>
-        <v>37530</v>
+        <f>EOMONTH(A81,1)</f>
+        <v>37560</v>
       </c>
       <c r="B82" s="20" t="s">
         <v>45</v>
@@ -4224,7 +4225,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>46</v>
@@ -4246,10 +4247,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
-        <f>EDATE(A82,1)</f>
-        <v>37561</v>
+        <f>EOMONTH(A82,1)</f>
+        <v>37590</v>
       </c>
       <c r="B84" s="20" t="s">
         <v>45</v>
@@ -4273,7 +4274,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>132</v>
@@ -4295,7 +4296,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>107</v>
@@ -4315,10 +4316,10 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
-        <f>EDATE(A84,1)</f>
-        <v>37591</v>
+        <f>EOMONTH(A84,1)</f>
+        <v>37621</v>
       </c>
       <c r="B87" s="20" t="s">
         <v>98</v>
@@ -4340,7 +4341,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="48" t="s">
         <v>87</v>
       </c>
@@ -4362,10 +4363,10 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
-        <f>EDATE(A87,1)</f>
-        <v>37622</v>
+        <f>EOMONTH(A87,1)</f>
+        <v>37652</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13">
@@ -4383,10 +4384,10 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
-        <f t="shared" si="0"/>
-        <v>37653</v>
+        <f>EOMONTH(A89,1)</f>
+        <v>37680</v>
       </c>
       <c r="B90" s="20" t="s">
         <v>45</v>
@@ -4410,7 +4411,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>140</v>
@@ -4430,10 +4431,10 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
-        <f>EDATE(A90,1)</f>
-        <v>37681</v>
+        <f>EOMONTH(A90,1)</f>
+        <v>37711</v>
       </c>
       <c r="B92" s="20" t="s">
         <v>141</v>
@@ -4455,10 +4456,10 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
-        <f t="shared" si="0"/>
-        <v>37712</v>
+        <f>EOMONTH(A92,1)</f>
+        <v>37741</v>
       </c>
       <c r="B93" s="20" t="s">
         <v>142</v>
@@ -4480,10 +4481,10 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
-        <f t="shared" si="0"/>
-        <v>37742</v>
+        <f>EOMONTH(A93,1)</f>
+        <v>37772</v>
       </c>
       <c r="B94" s="20" t="s">
         <v>143</v>
@@ -4505,10 +4506,10 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
-        <f t="shared" si="0"/>
-        <v>37773</v>
+        <f>EOMONTH(A94,1)</f>
+        <v>37802</v>
       </c>
       <c r="B95" s="20" t="s">
         <v>45</v>
@@ -4532,7 +4533,7 @@
         <v>37686</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>144</v>
@@ -4552,10 +4553,10 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
-        <f>EDATE(A95,1)</f>
-        <v>37803</v>
+        <f>EOMONTH(A95,1)</f>
+        <v>37833</v>
       </c>
       <c r="B97" s="20" t="s">
         <v>146</v>
@@ -4577,10 +4578,10 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
-        <f t="shared" si="0"/>
-        <v>37834</v>
+        <f>EOMONTH(A97,1)</f>
+        <v>37864</v>
       </c>
       <c r="B98" s="20" t="s">
         <v>45</v>
@@ -4604,7 +4605,7 @@
         <v>37629</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>149</v>
@@ -4624,10 +4625,10 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
-        <f>EDATE(A98,1)</f>
-        <v>37865</v>
+        <f>EOMONTH(A98,1)</f>
+        <v>37894</v>
       </c>
       <c r="B100" s="20" t="s">
         <v>104</v>
@@ -4649,10 +4650,10 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23">
-        <f t="shared" si="0"/>
-        <v>37895</v>
+        <f>EOMONTH(A100,1)</f>
+        <v>37925</v>
       </c>
       <c r="B101" s="20" t="s">
         <v>148</v>
@@ -4674,10 +4675,10 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
-        <f t="shared" si="0"/>
-        <v>37926</v>
+        <f>EOMONTH(A101,1)</f>
+        <v>37955</v>
       </c>
       <c r="B102" s="20" t="s">
         <v>144</v>
@@ -4699,10 +4700,10 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
-        <f t="shared" si="0"/>
-        <v>37956</v>
+        <f>EOMONTH(A102,1)</f>
+        <v>37986</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13">
@@ -4720,7 +4721,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="48" t="s">
         <v>86</v>
       </c>
@@ -4742,10 +4743,10 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
-        <f>EDATE(A103,1)</f>
-        <v>37987</v>
+        <f>EOMONTH(A103,1)</f>
+        <v>38017</v>
       </c>
       <c r="B105" s="20" t="s">
         <v>150</v>
@@ -4767,10 +4768,10 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
-        <f t="shared" si="0"/>
-        <v>38018</v>
+        <f>EOMONTH(A105,1)</f>
+        <v>38046</v>
       </c>
       <c r="B106" s="20" t="s">
         <v>151</v>
@@ -4792,10 +4793,10 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
-        <f t="shared" si="0"/>
-        <v>38047</v>
+        <f>EOMONTH(A106,1)</f>
+        <v>38077</v>
       </c>
       <c r="B107" s="20" t="s">
         <v>45</v>
@@ -4819,7 +4820,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>65</v>
@@ -4841,7 +4842,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>152</v>
@@ -4861,10 +4862,10 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
-        <f>EDATE(A107,1)</f>
-        <v>38078</v>
+        <f>EOMONTH(A107,1)</f>
+        <v>38107</v>
       </c>
       <c r="B110" s="20" t="s">
         <v>153</v>
@@ -4886,10 +4887,10 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23">
-        <f t="shared" si="0"/>
-        <v>38108</v>
+        <f>EOMONTH(A110,1)</f>
+        <v>38138</v>
       </c>
       <c r="B111" s="20" t="s">
         <v>154</v>
@@ -4911,10 +4912,10 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
-        <f t="shared" si="0"/>
-        <v>38139</v>
+        <f>EOMONTH(A111,1)</f>
+        <v>38168</v>
       </c>
       <c r="B112" s="20" t="s">
         <v>53</v>
@@ -4936,7 +4937,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>152</v>
@@ -4956,10 +4957,10 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
-        <f>EDATE(A112,1)</f>
-        <v>38169</v>
+        <f>EOMONTH(A112,1)</f>
+        <v>38199</v>
       </c>
       <c r="B114" s="20" t="s">
         <v>45</v>
@@ -4983,7 +4984,7 @@
         <v>37993</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>157</v>
@@ -5000,10 +5001,10 @@
       <c r="J115" s="11"/>
       <c r="K115" s="49"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23">
-        <f>EDATE(A114,1)</f>
-        <v>38200</v>
+        <f>EOMONTH(A114,1)</f>
+        <v>38230</v>
       </c>
       <c r="B116" s="20" t="s">
         <v>45</v>
@@ -5027,7 +5028,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>116</v>
@@ -5047,10 +5048,10 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
-        <f>EDATE(A116,1)</f>
-        <v>38231</v>
+        <f>EOMONTH(A116,1)</f>
+        <v>38260</v>
       </c>
       <c r="B118" s="20" t="s">
         <v>158</v>
@@ -5072,10 +5073,10 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23">
-        <f t="shared" ref="A119:A226" si="1">EDATE(A118,1)</f>
-        <v>38261</v>
+        <f>EOMONTH(A118,1)</f>
+        <v>38291</v>
       </c>
       <c r="B119" s="20" t="s">
         <v>147</v>
@@ -5097,7 +5098,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>45</v>
@@ -5119,10 +5120,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23">
-        <f>EDATE(A119,1)</f>
-        <v>38292</v>
+        <f>EOMONTH(A119,1)</f>
+        <v>38321</v>
       </c>
       <c r="B121" s="20" t="s">
         <v>151</v>
@@ -5144,10 +5145,10 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
-        <f t="shared" si="1"/>
-        <v>38322</v>
+        <f>EOMONTH(A121,1)</f>
+        <v>38352</v>
       </c>
       <c r="B122" s="20" t="s">
         <v>93</v>
@@ -5169,7 +5170,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="48" t="s">
         <v>85</v>
       </c>
@@ -5191,10 +5192,10 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23">
-        <f>EDATE(A122,1)</f>
-        <v>38353</v>
+        <f>EOMONTH(A122,1)</f>
+        <v>38383</v>
       </c>
       <c r="B124" s="20" t="s">
         <v>47</v>
@@ -5218,7 +5219,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>161</v>
@@ -5238,7 +5239,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>149</v>
@@ -5258,10 +5259,10 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23">
-        <f>EDATE(A124,1)</f>
-        <v>38384</v>
+        <f>EOMONTH(A124,1)</f>
+        <v>38411</v>
       </c>
       <c r="B127" s="20" t="s">
         <v>162</v>
@@ -5283,10 +5284,10 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
-        <f t="shared" si="1"/>
-        <v>38412</v>
+        <f>EOMONTH(A127,1)</f>
+        <v>38442</v>
       </c>
       <c r="B128" s="20" t="s">
         <v>165</v>
@@ -5310,7 +5311,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
         <v>169</v>
@@ -5330,10 +5331,10 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23">
-        <f>EDATE(A128,1)</f>
-        <v>38443</v>
+        <f>EOMONTH(A128,1)</f>
+        <v>38472</v>
       </c>
       <c r="B130" s="20" t="s">
         <v>45</v>
@@ -5357,7 +5358,7 @@
         <v>38507</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>103</v>
@@ -5377,10 +5378,10 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23">
-        <f>EDATE(A130,1)</f>
-        <v>38473</v>
+        <f>EOMONTH(A130,1)</f>
+        <v>38503</v>
       </c>
       <c r="B132" s="20" t="s">
         <v>161</v>
@@ -5402,7 +5403,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23"/>
       <c r="B133" s="20" t="s">
         <v>45</v>
@@ -5424,7 +5425,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>170</v>
@@ -5444,10 +5445,10 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23">
-        <f>EDATE(A132,1)</f>
-        <v>38504</v>
+        <f>EOMONTH(A132,1)</f>
+        <v>38533</v>
       </c>
       <c r="B135" s="20" t="s">
         <v>171</v>
@@ -5469,10 +5470,10 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
-        <f t="shared" si="1"/>
-        <v>38534</v>
+        <f>EOMONTH(A135,1)</f>
+        <v>38564</v>
       </c>
       <c r="B136" s="20" t="s">
         <v>172</v>
@@ -5494,10 +5495,10 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
-        <f t="shared" si="1"/>
-        <v>38565</v>
+        <f>EOMONTH(A136,1)</f>
+        <v>38595</v>
       </c>
       <c r="B137" s="20" t="s">
         <v>173</v>
@@ -5519,10 +5520,10 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
-        <f t="shared" si="1"/>
-        <v>38596</v>
+        <f>EOMONTH(A137,1)</f>
+        <v>38625</v>
       </c>
       <c r="B138" s="20" t="s">
         <v>47</v>
@@ -5546,7 +5547,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>45</v>
@@ -5568,7 +5569,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>174</v>
@@ -5588,10 +5589,10 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23">
-        <f>EDATE(A138,1)</f>
-        <v>38626</v>
+        <f>EOMONTH(A138,1)</f>
+        <v>38656</v>
       </c>
       <c r="B141" s="20" t="s">
         <v>45</v>
@@ -5615,7 +5616,7 @@
         <v>38513</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>146</v>
@@ -5632,10 +5633,10 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
-        <f>EDATE(A141,1)</f>
-        <v>38657</v>
+        <f>EOMONTH(A141,1)</f>
+        <v>38686</v>
       </c>
       <c r="B143" s="20" t="s">
         <v>47</v>
@@ -5659,7 +5660,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>175</v>
@@ -5679,7 +5680,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>161</v>
@@ -5699,10 +5700,10 @@
         <v>177</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23">
-        <f>EDATE(A143,1)</f>
-        <v>38687</v>
+        <f>EOMONTH(A143,1)</f>
+        <v>38717</v>
       </c>
       <c r="B146" s="20" t="s">
         <v>176</v>
@@ -5724,7 +5725,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="48" t="s">
         <v>84</v>
       </c>
@@ -5746,10 +5747,10 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23">
-        <f>EDATE(A146,1)</f>
-        <v>38718</v>
+        <f>EOMONTH(A146,1)</f>
+        <v>38748</v>
       </c>
       <c r="B148" s="20" t="s">
         <v>45</v>
@@ -5773,7 +5774,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>45</v>
@@ -5795,7 +5796,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>181</v>
@@ -5815,10 +5816,10 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23">
-        <f>EDATE(A148,1)</f>
-        <v>38749</v>
+        <f>EOMONTH(A148,1)</f>
+        <v>38776</v>
       </c>
       <c r="B151" s="20" t="s">
         <v>45</v>
@@ -5842,7 +5843,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>47</v>
@@ -5864,7 +5865,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>182</v>
@@ -5884,10 +5885,10 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23">
-        <f>EDATE(A151,1)</f>
-        <v>38777</v>
+        <f>EOMONTH(A151,1)</f>
+        <v>38807</v>
       </c>
       <c r="B154" s="20" t="s">
         <v>187</v>
@@ -5909,10 +5910,10 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23">
-        <f t="shared" si="1"/>
-        <v>38808</v>
+        <f>EOMONTH(A154,1)</f>
+        <v>38837</v>
       </c>
       <c r="B155" s="20" t="s">
         <v>188</v>
@@ -5934,7 +5935,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>45</v>
@@ -5956,10 +5957,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23">
-        <f>EDATE(A155,1)</f>
-        <v>38838</v>
+        <f>EOMONTH(A155,1)</f>
+        <v>38868</v>
       </c>
       <c r="B157" s="20" t="s">
         <v>189</v>
@@ -5981,10 +5982,10 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23">
-        <f t="shared" si="1"/>
-        <v>38869</v>
+        <f>EOMONTH(A157,1)</f>
+        <v>38898</v>
       </c>
       <c r="B158" s="20" t="s">
         <v>47</v>
@@ -6008,7 +6009,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
         <v>190</v>
@@ -6028,10 +6029,10 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23">
-        <f>EDATE(A158,1)</f>
-        <v>38899</v>
+        <f>EOMONTH(A158,1)</f>
+        <v>38929</v>
       </c>
       <c r="B160" s="20" t="s">
         <v>47</v>
@@ -6055,7 +6056,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>191</v>
@@ -6075,10 +6076,10 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
-        <f>EDATE(A160,1)</f>
-        <v>38930</v>
+        <f>EOMONTH(A160,1)</f>
+        <v>38960</v>
       </c>
       <c r="B162" s="20" t="s">
         <v>45</v>
@@ -6102,7 +6103,7 @@
         <v>38937</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>192</v>
@@ -6122,10 +6123,10 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23">
-        <f>EDATE(A162,1)</f>
-        <v>38961</v>
+        <f>EOMONTH(A162,1)</f>
+        <v>38990</v>
       </c>
       <c r="B164" s="20" t="s">
         <v>45</v>
@@ -6149,7 +6150,7 @@
         <v>38846</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>193</v>
@@ -6169,10 +6170,10 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23">
-        <f>EDATE(A164,1)</f>
-        <v>38991</v>
+        <f>EOMONTH(A164,1)</f>
+        <v>39021</v>
       </c>
       <c r="B166" s="20" t="s">
         <v>45</v>
@@ -6196,7 +6197,7 @@
         <v>39031</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>194</v>
@@ -6216,10 +6217,10 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23">
-        <f>EDATE(A166,1)</f>
-        <v>39022</v>
+        <f>EOMONTH(A166,1)</f>
+        <v>39051</v>
       </c>
       <c r="B168" s="20" t="s">
         <v>150</v>
@@ -6241,10 +6242,10 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23">
-        <f t="shared" si="1"/>
-        <v>39052</v>
+        <f>EOMONTH(A168,1)</f>
+        <v>39082</v>
       </c>
       <c r="B169" s="20" t="s">
         <v>195</v>
@@ -6266,7 +6267,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>62</v>
@@ -6286,7 +6287,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>200</v>
@@ -6303,7 +6304,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="48" t="s">
         <v>83</v>
       </c>
@@ -6325,10 +6326,10 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23">
-        <f>EDATE(A169,1)</f>
-        <v>39083</v>
+        <f>EOMONTH(A169,1)</f>
+        <v>39113</v>
       </c>
       <c r="B173" s="20" t="s">
         <v>45</v>
@@ -6352,7 +6353,7 @@
         <v>39326</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>45</v>
@@ -6371,7 +6372,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
         <v>181</v>
@@ -6388,10 +6389,10 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23">
-        <f>EDATE(A173,1)</f>
-        <v>39114</v>
+        <f>EOMONTH(A173,1)</f>
+        <v>39141</v>
       </c>
       <c r="B176" s="20" t="s">
         <v>45</v>
@@ -6415,7 +6416,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>45</v>
@@ -6437,7 +6438,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>170</v>
@@ -6457,10 +6458,10 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
-        <f>EDATE(A176,1)</f>
-        <v>39142</v>
+        <f>EOMONTH(A176,1)</f>
+        <v>39172</v>
       </c>
       <c r="B179" s="20" t="s">
         <v>45</v>
@@ -6484,7 +6485,7 @@
         <v>39419</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>190</v>
@@ -6504,10 +6505,10 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23">
-        <f>EDATE(A179,1)</f>
-        <v>39173</v>
+        <f>EOMONTH(A179,1)</f>
+        <v>39202</v>
       </c>
       <c r="B181" s="20" t="s">
         <v>62</v>
@@ -6531,7 +6532,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>202</v>
@@ -6551,10 +6552,10 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23">
-        <f>EDATE(A181,1)</f>
-        <v>39203</v>
+        <f>EOMONTH(A181,1)</f>
+        <v>39233</v>
       </c>
       <c r="B183" s="20" t="s">
         <v>203</v>
@@ -6576,10 +6577,10 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23">
-        <f t="shared" si="1"/>
-        <v>39234</v>
+        <f>EOMONTH(A183,1)</f>
+        <v>39263</v>
       </c>
       <c r="B184" s="20" t="s">
         <v>65</v>
@@ -6603,7 +6604,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>45</v>
@@ -6625,7 +6626,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>151</v>
@@ -6645,10 +6646,10 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23">
-        <f>EDATE(A184,1)</f>
-        <v>39264</v>
+        <f>EOMONTH(A184,1)</f>
+        <v>39294</v>
       </c>
       <c r="B187" s="20" t="s">
         <v>204</v>
@@ -6670,7 +6671,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>205</v>
@@ -6692,10 +6693,10 @@
         <v>213</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23">
-        <f>EDATE(A187,1)</f>
-        <v>39295</v>
+        <f>EOMONTH(A187,1)</f>
+        <v>39325</v>
       </c>
       <c r="B189" s="20" t="s">
         <v>206</v>
@@ -6719,7 +6720,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>47</v>
@@ -6741,7 +6742,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>47</v>
@@ -6763,7 +6764,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>45</v>
@@ -6785,7 +6786,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>207</v>
@@ -6805,10 +6806,10 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23">
-        <f>EDATE(A189,1)</f>
-        <v>39326</v>
+        <f>EOMONTH(A189,1)</f>
+        <v>39355</v>
       </c>
       <c r="B194" s="20" t="s">
         <v>45</v>
@@ -6832,7 +6833,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>219</v>
@@ -6852,10 +6853,10 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
-        <f>EDATE(A194,1)</f>
-        <v>39356</v>
+        <f>EOMONTH(A194,1)</f>
+        <v>39386</v>
       </c>
       <c r="B196" s="20" t="s">
         <v>117</v>
@@ -6877,10 +6878,10 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23">
-        <f t="shared" si="1"/>
-        <v>39387</v>
+        <f>EOMONTH(A196,1)</f>
+        <v>39416</v>
       </c>
       <c r="B197" s="20" t="s">
         <v>220</v>
@@ -6902,10 +6903,10 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23">
-        <f t="shared" si="1"/>
-        <v>39417</v>
+        <f>EOMONTH(A197,1)</f>
+        <v>39447</v>
       </c>
       <c r="B198" s="20" t="s">
         <v>161</v>
@@ -6927,7 +6928,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>161</v>
@@ -6947,7 +6948,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>221</v>
@@ -6967,7 +6968,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="48" t="s">
         <v>82</v>
       </c>
@@ -6989,10 +6990,10 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23">
-        <f>EDATE(A198,1)</f>
-        <v>39448</v>
+        <f>EOMONTH(A198,1)</f>
+        <v>39478</v>
       </c>
       <c r="B202" s="20" t="s">
         <v>205</v>
@@ -7016,7 +7017,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>224</v>
@@ -7036,10 +7037,10 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23">
-        <f>EDATE(A202,1)</f>
-        <v>39479</v>
+        <f>EOMONTH(A202,1)</f>
+        <v>39507</v>
       </c>
       <c r="B204" s="20" t="s">
         <v>45</v>
@@ -7063,7 +7064,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>173</v>
@@ -7083,10 +7084,10 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23">
-        <f>EDATE(A204,1)</f>
-        <v>39508</v>
+        <f>EOMONTH(A204,1)</f>
+        <v>39538</v>
       </c>
       <c r="B206" s="20" t="s">
         <v>45</v>
@@ -7110,7 +7111,7 @@
         <v>39724</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>225</v>
@@ -7130,10 +7131,10 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23">
-        <f>EDATE(A206,1)</f>
-        <v>39539</v>
+        <f>EOMONTH(A206,1)</f>
+        <v>39568</v>
       </c>
       <c r="B208" s="20" t="s">
         <v>45</v>
@@ -7157,7 +7158,7 @@
         <v>39756</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>45</v>
@@ -7179,7 +7180,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>154</v>
@@ -7199,10 +7200,10 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23">
-        <f>EDATE(A208,1)</f>
-        <v>39569</v>
+        <f>EOMONTH(A208,1)</f>
+        <v>39599</v>
       </c>
       <c r="B211" s="20" t="s">
         <v>47</v>
@@ -7226,7 +7227,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>226</v>
@@ -7246,10 +7247,10 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23">
-        <f>EDATE(A211,1)</f>
-        <v>39600</v>
+        <f>EOMONTH(A211,1)</f>
+        <v>39629</v>
       </c>
       <c r="B213" s="20" t="s">
         <v>45</v>
@@ -7273,7 +7274,7 @@
         <v>39758</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>45</v>
@@ -7295,7 +7296,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>232</v>
@@ -7312,10 +7313,10 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23">
-        <f>EDATE(A213,1)</f>
-        <v>39630</v>
+        <f>EOMONTH(A213,1)</f>
+        <v>39660</v>
       </c>
       <c r="B216" s="20" t="s">
         <v>45</v>
@@ -7339,7 +7340,7 @@
         <v>39728</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>45</v>
@@ -7361,7 +7362,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>233</v>
@@ -7381,10 +7382,10 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23">
-        <f>EDATE(A216,1)</f>
-        <v>39661</v>
+        <f>EOMONTH(A216,1)</f>
+        <v>39691</v>
       </c>
       <c r="B219" s="20" t="s">
         <v>234</v>
@@ -7406,10 +7407,10 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23">
-        <f t="shared" si="1"/>
-        <v>39692</v>
+        <f>EOMONTH(A219,1)</f>
+        <v>39721</v>
       </c>
       <c r="B220" s="20" t="s">
         <v>45</v>
@@ -7433,7 +7434,7 @@
         <v>39730</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>45</v>
@@ -7455,7 +7456,7 @@
         <v>39791</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>235</v>
@@ -7475,10 +7476,10 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23">
-        <f>EDATE(A220,1)</f>
-        <v>39722</v>
+        <f>EOMONTH(A220,1)</f>
+        <v>39752</v>
       </c>
       <c r="B223" s="20" t="s">
         <v>45</v>
@@ -7502,7 +7503,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>236</v>
@@ -7522,10 +7523,10 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23">
-        <f>EDATE(A223,1)</f>
-        <v>39753</v>
+        <f>EOMONTH(A223,1)</f>
+        <v>39782</v>
       </c>
       <c r="B225" s="20" t="s">
         <v>237</v>
@@ -7547,10 +7548,10 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23">
-        <f t="shared" si="1"/>
-        <v>39783</v>
+        <f>EOMONTH(A225,1)</f>
+        <v>39813</v>
       </c>
       <c r="B226" s="20" t="s">
         <v>62</v>
@@ -7572,7 +7573,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>238</v>
@@ -7592,7 +7593,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="48" t="s">
         <v>81</v>
       </c>
@@ -7614,10 +7615,10 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23">
-        <f>EDATE(A226,1)</f>
-        <v>39814</v>
+        <f>EOMONTH(A226,1)</f>
+        <v>39844</v>
       </c>
       <c r="B229" s="20" t="s">
         <v>161</v>
@@ -7639,7 +7640,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>45</v>
@@ -7661,7 +7662,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>241</v>
@@ -7681,10 +7682,10 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23">
-        <f>EDATE(A229,1)</f>
-        <v>39845</v>
+        <f>EOMONTH(A229,1)</f>
+        <v>39872</v>
       </c>
       <c r="B232" s="20" t="s">
         <v>165</v>
@@ -7708,7 +7709,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>242</v>
@@ -7728,10 +7729,10 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23">
-        <f>EDATE(A232,1)</f>
-        <v>39873</v>
+        <f>EOMONTH(A232,1)</f>
+        <v>39903</v>
       </c>
       <c r="B234" s="20" t="s">
         <v>45</v>
@@ -7755,7 +7756,7 @@
         <v>39875</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>45</v>
@@ -7777,7 +7778,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>247</v>
@@ -7797,10 +7798,10 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23">
-        <f>EDATE(A234,1)</f>
-        <v>39904</v>
+        <f>EOMONTH(A234,1)</f>
+        <v>39933</v>
       </c>
       <c r="B237" s="20" t="s">
         <v>47</v>
@@ -7824,7 +7825,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>248</v>
@@ -7844,10 +7845,10 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23">
-        <f>EDATE(A237,1)</f>
-        <v>39934</v>
+        <f>EOMONTH(A237,1)</f>
+        <v>39964</v>
       </c>
       <c r="B239" s="20" t="s">
         <v>45</v>
@@ -7871,7 +7872,7 @@
         <v>39938</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>45</v>
@@ -7893,7 +7894,7 @@
         <v>40152</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>206</v>
@@ -7915,7 +7916,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>237</v>
@@ -7935,10 +7936,10 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23">
-        <f>EDATE(A239,1)</f>
-        <v>39965</v>
+        <f>EOMONTH(A239,1)</f>
+        <v>39994</v>
       </c>
       <c r="B243" s="20" t="s">
         <v>45</v>
@@ -7962,7 +7963,7 @@
         <v>40123</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>249</v>
@@ -7982,10 +7983,10 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23">
-        <f>EDATE(A243,1)</f>
-        <v>39995</v>
+        <f>EOMONTH(A243,1)</f>
+        <v>40025</v>
       </c>
       <c r="B245" s="20" t="s">
         <v>45</v>
@@ -8009,7 +8010,7 @@
         <v>40001</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>45</v>
@@ -8031,7 +8032,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>45</v>
@@ -8053,7 +8054,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>47</v>
@@ -8075,7 +8076,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>250</v>
@@ -8095,10 +8096,10 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23">
-        <f>EDATE(A245,1)</f>
-        <v>40026</v>
+        <f>EOMONTH(A245,1)</f>
+        <v>40056</v>
       </c>
       <c r="B250" s="20" t="s">
         <v>45</v>
@@ -8122,7 +8123,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>251</v>
@@ -8142,10 +8143,10 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23">
-        <f>EDATE(A250,1)</f>
-        <v>40057</v>
+        <f>EOMONTH(A250,1)</f>
+        <v>40086</v>
       </c>
       <c r="B252" s="20" t="s">
         <v>47</v>
@@ -8169,7 +8170,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>252</v>
@@ -8189,10 +8190,10 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23">
-        <f>EDATE(A252,1)</f>
-        <v>40087</v>
+        <f>EOMONTH(A252,1)</f>
+        <v>40117</v>
       </c>
       <c r="B254" s="20" t="s">
         <v>45</v>
@@ -8216,7 +8217,7 @@
         <v>40004</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>45</v>
@@ -8238,7 +8239,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>261</v>
@@ -8258,10 +8259,10 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23">
-        <f>EDATE(A254,1)</f>
-        <v>40118</v>
+        <f>EOMONTH(A254,1)</f>
+        <v>40147</v>
       </c>
       <c r="B257" s="20" t="s">
         <v>45</v>
@@ -8285,7 +8286,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>262</v>
@@ -8305,10 +8306,10 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23">
-        <f>EDATE(A257,1)</f>
-        <v>40148</v>
+        <f>EOMONTH(A257,1)</f>
+        <v>40178</v>
       </c>
       <c r="B259" s="20" t="s">
         <v>45</v>
@@ -8332,7 +8333,7 @@
         <v>39884</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>47</v>
@@ -8354,7 +8355,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>165</v>
@@ -8376,7 +8377,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>165</v>
@@ -8398,7 +8399,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>263</v>
@@ -8418,7 +8419,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="48" t="s">
         <v>80</v>
       </c>
@@ -8440,10 +8441,10 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23">
-        <f>EDATE(A259,1)</f>
-        <v>40179</v>
+        <f>EOMONTH(A259,1)</f>
+        <v>40209</v>
       </c>
       <c r="B265" s="20" t="s">
         <v>268</v>
@@ -8465,10 +8466,10 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
-        <f t="shared" ref="A266:A376" si="2">EDATE(A265,1)</f>
-        <v>40210</v>
+        <f>EOMONTH(A265,1)</f>
+        <v>40237</v>
       </c>
       <c r="B266" s="20" t="s">
         <v>47</v>
@@ -8492,7 +8493,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>269</v>
@@ -8512,10 +8513,10 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23">
-        <f>EDATE(A266,1)</f>
-        <v>40238</v>
+        <f>EOMONTH(A266,1)</f>
+        <v>40268</v>
       </c>
       <c r="B268" s="20" t="s">
         <v>45</v>
@@ -8539,7 +8540,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>270</v>
@@ -8559,10 +8560,10 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23">
-        <f>EDATE(A268,1)</f>
-        <v>40269</v>
+        <f>EOMONTH(A268,1)</f>
+        <v>40298</v>
       </c>
       <c r="B270" s="20" t="s">
         <v>45</v>
@@ -8586,7 +8587,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>271</v>
@@ -8606,10 +8607,10 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23">
-        <f>EDATE(A270,1)</f>
-        <v>40299</v>
+        <f>EOMONTH(A270,1)</f>
+        <v>40329</v>
       </c>
       <c r="B272" s="20" t="s">
         <v>189</v>
@@ -8631,10 +8632,10 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23">
-        <f t="shared" si="2"/>
-        <v>40330</v>
+        <f>EOMONTH(A272,1)</f>
+        <v>40359</v>
       </c>
       <c r="B273" s="20" t="s">
         <v>45</v>
@@ -8658,7 +8659,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>45</v>
@@ -8680,7 +8681,7 @@
         <v>40184</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>45</v>
@@ -8702,7 +8703,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>45</v>
@@ -8724,7 +8725,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>277</v>
@@ -8744,10 +8745,10 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23">
-        <f>EDATE(A273,1)</f>
-        <v>40360</v>
+        <f>EOMONTH(A273,1)</f>
+        <v>40390</v>
       </c>
       <c r="B278" s="20" t="s">
         <v>45</v>
@@ -8771,7 +8772,7 @@
         <v>40185</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>45</v>
@@ -8793,7 +8794,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23"/>
       <c r="B280" s="20" t="s">
         <v>45</v>
@@ -8815,7 +8816,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>278</v>
@@ -8835,10 +8836,10 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23">
-        <f>EDATE(A278,1)</f>
-        <v>40391</v>
+        <f>EOMONTH(A278,1)</f>
+        <v>40421</v>
       </c>
       <c r="B282" s="20" t="s">
         <v>45</v>
@@ -8862,7 +8863,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>45</v>
@@ -8884,7 +8885,7 @@
         <v>40306</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>45</v>
@@ -8906,7 +8907,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>279</v>
@@ -8926,10 +8927,10 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23">
-        <f>EDATE(A282,1)</f>
-        <v>40422</v>
+        <f>EOMONTH(A282,1)</f>
+        <v>40451</v>
       </c>
       <c r="B286" s="20" t="s">
         <v>45</v>
@@ -8953,7 +8954,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>280</v>
@@ -8973,10 +8974,10 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23">
-        <f>EDATE(A286,1)</f>
-        <v>40452</v>
+        <f>EOMONTH(A286,1)</f>
+        <v>40482</v>
       </c>
       <c r="B288" s="20" t="s">
         <v>45</v>
@@ -9000,7 +9001,7 @@
         <v>40492</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>47</v>
@@ -9022,7 +9023,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>45</v>
@@ -9044,7 +9045,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>45</v>
@@ -9066,7 +9067,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>281</v>
@@ -9086,10 +9087,10 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23">
-        <f>EDATE(A288,1)</f>
-        <v>40483</v>
+        <f>EOMONTH(A288,1)</f>
+        <v>40512</v>
       </c>
       <c r="B293" s="20" t="s">
         <v>206</v>
@@ -9113,7 +9114,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>282</v>
@@ -9135,7 +9136,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>45</v>
@@ -9157,7 +9158,7 @@
         <v>40433</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>294</v>
@@ -9174,10 +9175,10 @@
       <c r="J296" s="11"/>
       <c r="K296" s="49"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23">
-        <f>EDATE(A293,1)</f>
-        <v>40513</v>
+        <f>EOMONTH(A293,1)</f>
+        <v>40543</v>
       </c>
       <c r="B297" s="20" t="s">
         <v>295</v>
@@ -9199,7 +9200,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="48" t="s">
         <v>79</v>
       </c>
@@ -9221,10 +9222,10 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23">
-        <f>EDATE(A297,1)</f>
-        <v>40544</v>
+        <f>EOMONTH(A297,1)</f>
+        <v>40574</v>
       </c>
       <c r="B299" s="20" t="s">
         <v>45</v>
@@ -9248,7 +9249,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>296</v>
@@ -9268,10 +9269,10 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23">
-        <f>EDATE(A299,1)</f>
-        <v>40575</v>
+        <f>EOMONTH(A299,1)</f>
+        <v>40602</v>
       </c>
       <c r="B301" s="20" t="s">
         <v>45</v>
@@ -9295,7 +9296,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>45</v>
@@ -9317,7 +9318,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>297</v>
@@ -9337,10 +9338,10 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23">
-        <f>EDATE(A301,1)</f>
-        <v>40603</v>
+        <f>EOMONTH(A301,1)</f>
+        <v>40633</v>
       </c>
       <c r="B304" s="20" t="s">
         <v>45</v>
@@ -9364,7 +9365,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>298</v>
@@ -9384,10 +9385,10 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23">
-        <f>EDATE(A304,1)</f>
-        <v>40634</v>
+        <f>EOMONTH(A304,1)</f>
+        <v>40663</v>
       </c>
       <c r="B306" s="20" t="s">
         <v>299</v>
@@ -9409,10 +9410,10 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23">
-        <f t="shared" si="2"/>
-        <v>40664</v>
+        <f>EOMONTH(A306,1)</f>
+        <v>40694</v>
       </c>
       <c r="B307" s="20" t="s">
         <v>300</v>
@@ -9434,10 +9435,10 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23">
-        <f t="shared" si="2"/>
-        <v>40695</v>
+        <f>EOMONTH(A307,1)</f>
+        <v>40724</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="13">
@@ -9455,10 +9456,10 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23">
-        <f t="shared" si="2"/>
-        <v>40725</v>
+        <f>EOMONTH(A308,1)</f>
+        <v>40755</v>
       </c>
       <c r="B309" s="20" t="s">
         <v>301</v>
@@ -9480,10 +9481,10 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23">
-        <f t="shared" si="2"/>
-        <v>40756</v>
+        <f>EOMONTH(A309,1)</f>
+        <v>40786</v>
       </c>
       <c r="B310" s="20" t="s">
         <v>301</v>
@@ -9505,10 +9506,10 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23">
-        <f t="shared" si="2"/>
-        <v>40787</v>
+        <f>EOMONTH(A310,1)</f>
+        <v>40816</v>
       </c>
       <c r="B311" s="20" t="s">
         <v>45</v>
@@ -9532,7 +9533,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>302</v>
@@ -9552,10 +9553,10 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23">
-        <f>EDATE(A311,1)</f>
-        <v>40817</v>
+        <f>EOMONTH(A311,1)</f>
+        <v>40847</v>
       </c>
       <c r="B313" s="20" t="s">
         <v>302</v>
@@ -9577,10 +9578,10 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23">
-        <f t="shared" si="2"/>
-        <v>40848</v>
+        <f>EOMONTH(A313,1)</f>
+        <v>40877</v>
       </c>
       <c r="B314" s="20" t="s">
         <v>45</v>
@@ -9604,7 +9605,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>45</v>
@@ -9626,7 +9627,7 @@
         <v>40555</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>309</v>
@@ -9646,10 +9647,10 @@
       <c r="J316" s="11"/>
       <c r="K316" s="49"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23">
-        <f>EDATE(A314,1)</f>
-        <v>40878</v>
+        <f>EOMONTH(A314,1)</f>
+        <v>40908</v>
       </c>
       <c r="B317" s="20" t="s">
         <v>310</v>
@@ -9673,7 +9674,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>45</v>
@@ -9695,7 +9696,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
         <v>311</v>
@@ -9715,7 +9716,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="48" t="s">
         <v>78</v>
       </c>
@@ -9737,10 +9738,10 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23">
-        <f>EDATE(A317,1)</f>
-        <v>40909</v>
+        <f>EOMONTH(A317,1)</f>
+        <v>40939</v>
       </c>
       <c r="B321" s="20" t="s">
         <v>314</v>
@@ -9762,10 +9763,10 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23">
-        <f t="shared" si="2"/>
-        <v>40940</v>
+        <f>EOMONTH(A321,1)</f>
+        <v>40968</v>
       </c>
       <c r="B322" s="20" t="s">
         <v>315</v>
@@ -9787,10 +9788,10 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23">
-        <f t="shared" si="2"/>
-        <v>40969</v>
+        <f>EOMONTH(A322,1)</f>
+        <v>40999</v>
       </c>
       <c r="B323" s="20" t="s">
         <v>316</v>
@@ -9812,10 +9813,10 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23">
-        <f t="shared" si="2"/>
-        <v>41000</v>
+        <f>EOMONTH(A323,1)</f>
+        <v>41029</v>
       </c>
       <c r="B324" s="20" t="s">
         <v>317</v>
@@ -9837,10 +9838,10 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23">
-        <f t="shared" si="2"/>
-        <v>41030</v>
+        <f>EOMONTH(A324,1)</f>
+        <v>41060</v>
       </c>
       <c r="B325" s="20" t="s">
         <v>318</v>
@@ -9862,10 +9863,10 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23">
-        <f t="shared" si="2"/>
-        <v>41061</v>
+        <f>EOMONTH(A325,1)</f>
+        <v>41090</v>
       </c>
       <c r="B326" s="20" t="s">
         <v>319</v>
@@ -9887,10 +9888,10 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23">
-        <f t="shared" si="2"/>
-        <v>41091</v>
+        <f>EOMONTH(A326,1)</f>
+        <v>41121</v>
       </c>
       <c r="B327" s="20" t="s">
         <v>320</v>
@@ -9912,10 +9913,10 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23">
-        <f t="shared" si="2"/>
-        <v>41122</v>
+        <f>EOMONTH(A327,1)</f>
+        <v>41152</v>
       </c>
       <c r="B328" s="20" t="s">
         <v>45</v>
@@ -9939,7 +9940,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>321</v>
@@ -9959,10 +9960,10 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23">
-        <f>EDATE(A328,1)</f>
-        <v>41153</v>
+        <f>EOMONTH(A328,1)</f>
+        <v>41182</v>
       </c>
       <c r="B330" s="20" t="s">
         <v>322</v>
@@ -9984,10 +9985,10 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23">
-        <f t="shared" si="2"/>
-        <v>41183</v>
+        <f>EOMONTH(A330,1)</f>
+        <v>41213</v>
       </c>
       <c r="B331" s="20" t="s">
         <v>323</v>
@@ -10009,10 +10010,10 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23">
-        <f t="shared" si="2"/>
-        <v>41214</v>
+        <f>EOMONTH(A331,1)</f>
+        <v>41243</v>
       </c>
       <c r="B332" s="20" t="s">
         <v>324</v>
@@ -10034,10 +10035,10 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23">
-        <f t="shared" si="2"/>
-        <v>41244</v>
+        <f>EOMONTH(A332,1)</f>
+        <v>41274</v>
       </c>
       <c r="B333" s="20" t="s">
         <v>325</v>
@@ -10061,7 +10062,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>282</v>
@@ -10083,7 +10084,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>326</v>
@@ -10103,7 +10104,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="48" t="s">
         <v>77</v>
       </c>
@@ -10125,10 +10126,10 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23">
-        <f>EDATE(A333,1)</f>
-        <v>41275</v>
+        <f>EOMONTH(A333,1)</f>
+        <v>41305</v>
       </c>
       <c r="B337" s="20" t="s">
         <v>330</v>
@@ -10150,10 +10151,10 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23">
-        <f t="shared" si="2"/>
-        <v>41306</v>
+        <f>EOMONTH(A337,1)</f>
+        <v>41333</v>
       </c>
       <c r="B338" s="20"/>
       <c r="C338" s="13">
@@ -10171,10 +10172,10 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23">
-        <f t="shared" si="2"/>
-        <v>41334</v>
+        <f>EOMONTH(A338,1)</f>
+        <v>41364</v>
       </c>
       <c r="B339" s="20"/>
       <c r="C339" s="13">
@@ -10192,10 +10193,10 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23">
-        <f t="shared" si="2"/>
-        <v>41365</v>
+        <f>EOMONTH(A339,1)</f>
+        <v>41394</v>
       </c>
       <c r="B340" s="20" t="s">
         <v>45</v>
@@ -10219,7 +10220,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23"/>
       <c r="B341" s="20" t="s">
         <v>331</v>
@@ -10230,7 +10231,7 @@
       </c>
       <c r="E341" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.555000000000007</v>
+        <v>28.805000000000007</v>
       </c>
       <c r="F341" s="20"/>
       <c r="G341" s="13" t="str">
@@ -10240,15 +10241,15 @@
       <c r="H341" s="39"/>
       <c r="I341" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>148.5</v>
+        <v>149.75</v>
       </c>
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23">
-        <f>EDATE(A340,1)</f>
-        <v>41395</v>
+        <f>EOMONTH(A340,1)</f>
+        <v>41425</v>
       </c>
       <c r="B342" s="20" t="s">
         <v>332</v>
@@ -10270,10 +10271,10 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23">
-        <f t="shared" si="2"/>
-        <v>41426</v>
+        <f>EOMONTH(A342,1)</f>
+        <v>41455</v>
       </c>
       <c r="B343" s="20" t="s">
         <v>45</v>
@@ -10297,7 +10298,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>333</v>
@@ -10308,7 +10309,7 @@
       </c>
       <c r="E344" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.555000000000007</v>
+        <v>28.805000000000007</v>
       </c>
       <c r="F344" s="20"/>
       <c r="G344" s="13" t="str">
@@ -10318,15 +10319,15 @@
       <c r="H344" s="39"/>
       <c r="I344" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>148.5</v>
+        <v>149.75</v>
       </c>
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23">
-        <f>EDATE(A343,1)</f>
-        <v>41456</v>
+        <f>EOMONTH(A343,1)</f>
+        <v>41486</v>
       </c>
       <c r="B345" s="20" t="s">
         <v>325</v>
@@ -10350,7 +10351,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23"/>
       <c r="B346" s="20" t="s">
         <v>206</v>
@@ -10359,7 +10360,7 @@
       <c r="D346" s="39"/>
       <c r="E346" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.555000000000007</v>
+        <v>28.805000000000007</v>
       </c>
       <c r="F346" s="20"/>
       <c r="G346" s="13" t="str">
@@ -10371,14 +10372,14 @@
       </c>
       <c r="I346" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>148.5</v>
+        <v>149.75</v>
       </c>
       <c r="J346" s="11"/>
       <c r="K346" s="20" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>334</v>
@@ -10389,7 +10390,7 @@
       </c>
       <c r="E347" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.555000000000007</v>
+        <v>28.805000000000007</v>
       </c>
       <c r="F347" s="20"/>
       <c r="G347" s="13" t="str">
@@ -10399,15 +10400,15 @@
       <c r="H347" s="39"/>
       <c r="I347" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>148.5</v>
+        <v>149.75</v>
       </c>
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23">
-        <f>EDATE(A345,1)</f>
-        <v>41487</v>
+        <f>EOMONTH(A345,1)</f>
+        <v>41517</v>
       </c>
       <c r="B348" s="20" t="s">
         <v>45</v>
@@ -10431,7 +10432,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>335</v>
@@ -10442,7 +10443,7 @@
       </c>
       <c r="E349" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.555000000000007</v>
+        <v>28.805000000000007</v>
       </c>
       <c r="F349" s="20"/>
       <c r="G349" s="13" t="str">
@@ -10452,15 +10453,15 @@
       <c r="H349" s="39"/>
       <c r="I349" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>148.5</v>
+        <v>149.75</v>
       </c>
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23">
-        <f>EDATE(A348,1)</f>
-        <v>41518</v>
+        <f>EOMONTH(A348,1)</f>
+        <v>41547</v>
       </c>
       <c r="B350" s="20" t="s">
         <v>45</v>
@@ -10484,7 +10485,7 @@
         <v>41617</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23"/>
       <c r="B351" s="20" t="s">
         <v>47</v>
@@ -10493,7 +10494,7 @@
       <c r="D351" s="39"/>
       <c r="E351" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.555000000000007</v>
+        <v>28.805000000000007</v>
       </c>
       <c r="F351" s="20"/>
       <c r="G351" s="13" t="str">
@@ -10505,14 +10506,14 @@
       </c>
       <c r="I351" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>148.5</v>
+        <v>149.75</v>
       </c>
       <c r="J351" s="11"/>
       <c r="K351" s="20" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>339</v>
@@ -10521,7 +10522,7 @@
       <c r="D352" s="39"/>
       <c r="E352" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.555000000000007</v>
+        <v>28.805000000000007</v>
       </c>
       <c r="F352" s="20"/>
       <c r="G352" s="13">
@@ -10532,14 +10533,14 @@
       </c>
       <c r="I352" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>148.5</v>
+        <v>149.75</v>
       </c>
       <c r="J352" s="11"/>
       <c r="K352" s="20" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23"/>
       <c r="B353" s="20" t="s">
         <v>336</v>
@@ -10550,7 +10551,7 @@
       </c>
       <c r="E353" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.555000000000007</v>
+        <v>28.805000000000007</v>
       </c>
       <c r="F353" s="20"/>
       <c r="G353" s="13" t="str">
@@ -10560,15 +10561,15 @@
       <c r="H353" s="39"/>
       <c r="I353" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>148.5</v>
+        <v>149.75</v>
       </c>
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23">
-        <f>EDATE(A350,1)</f>
-        <v>41548</v>
+        <f>EOMONTH(A350,1)</f>
+        <v>41578</v>
       </c>
       <c r="B354" s="20" t="s">
         <v>337</v>
@@ -10590,10 +10591,10 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23">
-        <f t="shared" si="2"/>
-        <v>41579</v>
+        <f>EOMONTH(A354,1)</f>
+        <v>41608</v>
       </c>
       <c r="B355" s="20" t="s">
         <v>338</v>
@@ -10615,10 +10616,10 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23">
-        <f t="shared" si="2"/>
-        <v>41609</v>
+        <f>EOMONTH(A355,1)</f>
+        <v>41639</v>
       </c>
       <c r="B356" s="20" t="s">
         <v>282</v>
@@ -10642,7 +10643,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="48" t="s">
         <v>76</v>
       </c>
@@ -10664,10 +10665,10 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23">
-        <f>EDATE(A356,1)</f>
-        <v>41640</v>
+        <f>EOMONTH(A356,1)</f>
+        <v>41670</v>
       </c>
       <c r="B358" s="20" t="s">
         <v>347</v>
@@ -10689,10 +10690,10 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23">
-        <f t="shared" si="2"/>
-        <v>41671</v>
+        <f>EOMONTH(A358,1)</f>
+        <v>41698</v>
       </c>
       <c r="B359" s="20" t="s">
         <v>348</v>
@@ -10714,10 +10715,10 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23">
-        <f t="shared" si="2"/>
-        <v>41699</v>
+        <f>EOMONTH(A359,1)</f>
+        <v>41729</v>
       </c>
       <c r="B360" s="20" t="s">
         <v>349</v>
@@ -10739,10 +10740,10 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23">
-        <f t="shared" si="2"/>
-        <v>41730</v>
+        <f>EOMONTH(A360,1)</f>
+        <v>41759</v>
       </c>
       <c r="B361" s="20" t="s">
         <v>350</v>
@@ -10764,10 +10765,10 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23">
-        <f t="shared" si="2"/>
-        <v>41760</v>
+        <f>EOMONTH(A361,1)</f>
+        <v>41790</v>
       </c>
       <c r="B362" s="20" t="s">
         <v>351</v>
@@ -10789,10 +10790,10 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="23">
-        <f t="shared" si="2"/>
-        <v>41791</v>
+        <f>EOMONTH(A362,1)</f>
+        <v>41820</v>
       </c>
       <c r="B363" s="20" t="s">
         <v>47</v>
@@ -10816,7 +10817,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>45</v>
@@ -10838,7 +10839,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23"/>
       <c r="B365" s="20" t="s">
         <v>352</v>
@@ -10858,10 +10859,10 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23">
-        <f>EDATE(A363,1)</f>
-        <v>41821</v>
+        <f>EOMONTH(A363,1)</f>
+        <v>41851</v>
       </c>
       <c r="B366" s="20" t="s">
         <v>45</v>
@@ -10885,7 +10886,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>353</v>
@@ -10905,10 +10906,10 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23">
-        <f>EDATE(A366,1)</f>
-        <v>41852</v>
+        <f>EOMONTH(A366,1)</f>
+        <v>41882</v>
       </c>
       <c r="B368" s="20" t="s">
         <v>339</v>
@@ -10932,7 +10933,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>237</v>
@@ -10952,10 +10953,10 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23">
-        <f>EDATE(A368,1)</f>
-        <v>41883</v>
+        <f>EOMONTH(A368,1)</f>
+        <v>41912</v>
       </c>
       <c r="B370" s="20" t="s">
         <v>237</v>
@@ -10977,10 +10978,10 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23">
-        <f t="shared" si="2"/>
-        <v>41913</v>
+        <f>EOMONTH(A370,1)</f>
+        <v>41943</v>
       </c>
       <c r="B371" s="20" t="s">
         <v>354</v>
@@ -11002,10 +11003,10 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="23">
-        <f t="shared" si="2"/>
-        <v>41944</v>
+        <f>EOMONTH(A371,1)</f>
+        <v>41973</v>
       </c>
       <c r="B372" s="20" t="s">
         <v>176</v>
@@ -11027,10 +11028,10 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23">
-        <f t="shared" si="2"/>
-        <v>41974</v>
+        <f>EOMONTH(A372,1)</f>
+        <v>42004</v>
       </c>
       <c r="B373" s="20" t="s">
         <v>119</v>
@@ -11052,7 +11053,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="48" t="s">
         <v>74</v>
       </c>
@@ -11074,10 +11075,10 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23">
-        <f>EDATE(A373,1)</f>
-        <v>42005</v>
+        <f>EOMONTH(A373,1)</f>
+        <v>42035</v>
       </c>
       <c r="B375" s="20" t="s">
         <v>360</v>
@@ -11099,10 +11100,10 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23">
-        <f t="shared" si="2"/>
-        <v>42036</v>
+        <f>EOMONTH(A375,1)</f>
+        <v>42063</v>
       </c>
       <c r="B376" s="20" t="s">
         <v>45</v>
@@ -11126,7 +11127,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>361</v>
@@ -11146,10 +11147,10 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23">
-        <f>EDATE(A376,1)</f>
-        <v>42064</v>
+        <f>EOMONTH(A376,1)</f>
+        <v>42094</v>
       </c>
       <c r="B378" s="20" t="s">
         <v>362</v>
@@ -11171,10 +11172,10 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23">
-        <f t="shared" ref="A379:A431" si="3">EDATE(A378,1)</f>
-        <v>42095</v>
+        <f>EOMONTH(A378,1)</f>
+        <v>42124</v>
       </c>
       <c r="B379" s="20" t="s">
         <v>47</v>
@@ -11198,7 +11199,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23"/>
       <c r="B380" s="20" t="s">
         <v>363</v>
@@ -11218,10 +11219,10 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="23">
-        <f>EDATE(A379,1)</f>
-        <v>42125</v>
+        <f>EOMONTH(A379,1)</f>
+        <v>42155</v>
       </c>
       <c r="B381" s="20" t="s">
         <v>364</v>
@@ -11243,10 +11244,10 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="23">
-        <f t="shared" si="3"/>
-        <v>42156</v>
+        <f>EOMONTH(A381,1)</f>
+        <v>42185</v>
       </c>
       <c r="B382" s="20" t="s">
         <v>249</v>
@@ -11268,10 +11269,10 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23">
-        <f t="shared" si="3"/>
-        <v>42186</v>
+        <f>EOMONTH(A382,1)</f>
+        <v>42216</v>
       </c>
       <c r="B383" s="20" t="s">
         <v>365</v>
@@ -11293,10 +11294,10 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="23">
-        <f t="shared" si="3"/>
-        <v>42217</v>
+        <f>EOMONTH(A383,1)</f>
+        <v>42247</v>
       </c>
       <c r="B384" s="20" t="s">
         <v>366</v>
@@ -11318,10 +11319,10 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23">
-        <f t="shared" si="3"/>
-        <v>42248</v>
+        <f>EOMONTH(A384,1)</f>
+        <v>42277</v>
       </c>
       <c r="B385" s="20" t="s">
         <v>367</v>
@@ -11343,10 +11344,10 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="23">
-        <f t="shared" si="3"/>
-        <v>42278</v>
+        <f>EOMONTH(A385,1)</f>
+        <v>42308</v>
       </c>
       <c r="B386" s="20" t="s">
         <v>45</v>
@@ -11370,7 +11371,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23"/>
       <c r="B387" s="20" t="s">
         <v>368</v>
@@ -11390,7 +11391,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23"/>
       <c r="B388" s="20" t="s">
         <v>369</v>
@@ -11410,10 +11411,10 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="23">
-        <f>EDATE(A386,1)</f>
-        <v>42309</v>
+        <f>EOMONTH(A386,1)</f>
+        <v>42338</v>
       </c>
       <c r="B389" s="20" t="s">
         <v>45</v>
@@ -11437,7 +11438,7 @@
         <v>42105</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>370</v>
@@ -11457,10 +11458,10 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="23">
-        <f>EDATE(A389,1)</f>
-        <v>42339</v>
+        <f>EOMONTH(A389,1)</f>
+        <v>42369</v>
       </c>
       <c r="B391" s="20" t="s">
         <v>46</v>
@@ -11484,7 +11485,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
         <v>46</v>
@@ -11506,7 +11507,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="23"/>
       <c r="B393" s="20" t="s">
         <v>325</v>
@@ -11526,7 +11527,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="23"/>
       <c r="B394" s="20" t="s">
         <v>371</v>
@@ -11546,7 +11547,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="48" t="s">
         <v>75</v>
       </c>
@@ -11568,10 +11569,10 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="23">
-        <f>EDATE(A391,1)</f>
-        <v>42370</v>
+        <f>EOMONTH(A391,1)</f>
+        <v>42400</v>
       </c>
       <c r="B396" s="20" t="s">
         <v>45</v>
@@ -11595,7 +11596,7 @@
         <v>42675</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="23"/>
       <c r="B397" s="20" t="s">
         <v>378</v>
@@ -11615,10 +11616,10 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="23">
-        <f>EDATE(A396,1)</f>
-        <v>42401</v>
+        <f>EOMONTH(A396,1)</f>
+        <v>42429</v>
       </c>
       <c r="B398" s="20" t="s">
         <v>379</v>
@@ -11640,10 +11641,10 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="23">
-        <f t="shared" si="3"/>
-        <v>42430</v>
+        <f>EOMONTH(A398,1)</f>
+        <v>42460</v>
       </c>
       <c r="B399" s="20" t="s">
         <v>380</v>
@@ -11665,10 +11666,10 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="23">
-        <f t="shared" si="3"/>
-        <v>42461</v>
+        <f>EOMONTH(A399,1)</f>
+        <v>42490</v>
       </c>
       <c r="B400" s="20" t="s">
         <v>45</v>
@@ -11692,7 +11693,7 @@
         <v>42586</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>205</v>
@@ -11714,7 +11715,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="23"/>
       <c r="B402" s="20" t="s">
         <v>381</v>
@@ -11734,10 +11735,10 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="23">
-        <f>EDATE(A400,1)</f>
-        <v>42491</v>
+        <f>EOMONTH(A400,1)</f>
+        <v>42521</v>
       </c>
       <c r="B403" s="20" t="s">
         <v>47</v>
@@ -11761,7 +11762,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23"/>
       <c r="B404" s="20" t="s">
         <v>382</v>
@@ -11781,10 +11782,10 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="23">
-        <f>EDATE(A403,1)</f>
-        <v>42522</v>
+        <f>EOMONTH(A403,1)</f>
+        <v>42551</v>
       </c>
       <c r="B405" s="20" t="s">
         <v>45</v>
@@ -11808,7 +11809,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="23"/>
       <c r="B406" s="20" t="s">
         <v>383</v>
@@ -11828,10 +11829,10 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="23">
-        <f>EDATE(A405,1)</f>
-        <v>42552</v>
+        <f>EOMONTH(A405,1)</f>
+        <v>42582</v>
       </c>
       <c r="B407" s="20" t="s">
         <v>369</v>
@@ -11853,10 +11854,10 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="23">
-        <f t="shared" si="3"/>
-        <v>42583</v>
+        <f>EOMONTH(A407,1)</f>
+        <v>42613</v>
       </c>
       <c r="B408" s="20" t="s">
         <v>384</v>
@@ -11878,10 +11879,10 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="23">
-        <f t="shared" si="3"/>
-        <v>42614</v>
+        <f>EOMONTH(A408,1)</f>
+        <v>42643</v>
       </c>
       <c r="B409" s="20" t="s">
         <v>385</v>
@@ -11903,10 +11904,10 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="23">
-        <f t="shared" si="3"/>
-        <v>42644</v>
+        <f>EOMONTH(A409,1)</f>
+        <v>42674</v>
       </c>
       <c r="B410" s="20" t="s">
         <v>386</v>
@@ -11928,10 +11929,10 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="23">
-        <f t="shared" si="3"/>
-        <v>42675</v>
+        <f>EOMONTH(A410,1)</f>
+        <v>42704</v>
       </c>
       <c r="B411" s="20" t="s">
         <v>387</v>
@@ -11953,10 +11954,10 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="23">
-        <f t="shared" si="3"/>
-        <v>42705</v>
+        <f>EOMONTH(A411,1)</f>
+        <v>42735</v>
       </c>
       <c r="B412" s="20" t="s">
         <v>53</v>
@@ -11980,7 +11981,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="23"/>
       <c r="B413" s="20" t="s">
         <v>347</v>
@@ -12000,7 +12001,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="48" t="s">
         <v>73</v>
       </c>
@@ -12022,10 +12023,10 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="23">
-        <f>EDATE(A412,1)</f>
-        <v>42736</v>
+        <f>EOMONTH(A412,1)</f>
+        <v>42766</v>
       </c>
       <c r="B415" s="20" t="s">
         <v>392</v>
@@ -12047,10 +12048,10 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="23">
-        <f t="shared" si="3"/>
-        <v>42767</v>
+        <f>EOMONTH(A415,1)</f>
+        <v>42794</v>
       </c>
       <c r="B416" s="20" t="s">
         <v>393</v>
@@ -12072,10 +12073,10 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="23">
-        <f>EDATE(A416,1)</f>
-        <v>42795</v>
+        <f>EOMONTH(A416,1)</f>
+        <v>42825</v>
       </c>
       <c r="B417" s="20" t="s">
         <v>206</v>
@@ -12097,7 +12098,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="23"/>
       <c r="B418" s="20" t="s">
         <v>171</v>
@@ -12114,10 +12115,10 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="23">
-        <f>EDATE(A417,1)</f>
-        <v>42826</v>
+        <f>EOMONTH(A417,1)</f>
+        <v>42855</v>
       </c>
       <c r="B419" s="20" t="s">
         <v>65</v>
@@ -12143,7 +12144,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>47</v>
@@ -12165,7 +12166,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>394</v>
@@ -12185,10 +12186,10 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="23">
-        <f>EDATE(A419,1)</f>
-        <v>42856</v>
+        <f>EOMONTH(A419,1)</f>
+        <v>42886</v>
       </c>
       <c r="B422" s="20" t="s">
         <v>395</v>
@@ -12210,10 +12211,10 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="23">
-        <f t="shared" si="3"/>
-        <v>42887</v>
+        <f>EOMONTH(A422,1)</f>
+        <v>42916</v>
       </c>
       <c r="B423" s="20" t="s">
         <v>47</v>
@@ -12239,7 +12240,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="23"/>
       <c r="B424" s="20" t="s">
         <v>396</v>
@@ -12256,10 +12257,10 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="23">
-        <f>EDATE(A423,1)</f>
-        <v>42917</v>
+        <f>EOMONTH(A423,1)</f>
+        <v>42947</v>
       </c>
       <c r="B425" s="20" t="s">
         <v>45</v>
@@ -12283,7 +12284,7 @@
         <v>43015</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
         <v>397</v>
@@ -12303,10 +12304,10 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="23">
-        <f>EDATE(A425,1)</f>
-        <v>42948</v>
+        <f>EOMONTH(A425,1)</f>
+        <v>42978</v>
       </c>
       <c r="B427" s="20" t="s">
         <v>225</v>
@@ -12328,10 +12329,10 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="23">
-        <f t="shared" si="3"/>
-        <v>42979</v>
+        <f>EOMONTH(A427,1)</f>
+        <v>43008</v>
       </c>
       <c r="B428" s="20" t="s">
         <v>398</v>
@@ -12353,10 +12354,10 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="23">
-        <f t="shared" si="3"/>
-        <v>43009</v>
+        <f>EOMONTH(A428,1)</f>
+        <v>43039</v>
       </c>
       <c r="B429" s="20" t="s">
         <v>47</v>
@@ -12380,10 +12381,10 @@
         <v>401</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="23">
-        <f t="shared" si="3"/>
-        <v>43040</v>
+        <f>EOMONTH(A429,1)</f>
+        <v>43069</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13">
@@ -12401,10 +12402,10 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="23">
-        <f t="shared" si="3"/>
-        <v>43070</v>
+        <f>EOMONTH(A430,1)</f>
+        <v>43100</v>
       </c>
       <c r="B431" s="20" t="s">
         <v>46</v>
@@ -12428,7 +12429,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="23"/>
       <c r="B432" s="20" t="s">
         <v>310</v>
@@ -12448,7 +12449,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
         <v>65</v>
@@ -12467,7 +12468,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="48" t="s">
         <v>44</v>
       </c>
@@ -12489,7 +12490,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>43101</v>
       </c>
@@ -12515,7 +12516,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>43132</v>
       </c>
@@ -12535,7 +12536,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>43160</v>
       </c>
@@ -12555,7 +12556,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>43191</v>
       </c>
@@ -12581,7 +12582,7 @@
         <v>43192</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>46</v>
@@ -12600,7 +12601,7 @@
         <v>43216</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>47</v>
@@ -12619,7 +12620,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>43221</v>
       </c>
@@ -12639,7 +12640,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>43252</v>
       </c>
@@ -12665,7 +12666,7 @@
         <v>43265</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>43282</v>
       </c>
@@ -12691,7 +12692,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>43313</v>
       </c>
@@ -12711,7 +12712,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>43344</v>
       </c>
@@ -12737,7 +12738,7 @@
         <v>43346</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>43374</v>
       </c>
@@ -12763,7 +12764,7 @@
         <v>43377</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>43405</v>
       </c>
@@ -12789,7 +12790,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>45</v>
@@ -12808,7 +12809,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>43435</v>
       </c>
@@ -12834,7 +12835,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="48" t="s">
         <v>52</v>
       </c>
@@ -12852,7 +12853,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>43466</v>
       </c>
@@ -12878,7 +12879,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>43497</v>
       </c>
@@ -12904,7 +12905,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>43525</v>
       </c>
@@ -12930,7 +12931,7 @@
         <v>43529</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>43556</v>
       </c>
@@ -12950,7 +12951,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>43586</v>
       </c>
@@ -12976,7 +12977,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>45</v>
@@ -12995,7 +12996,7 @@
         <v>43607</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>43617</v>
       </c>
@@ -13015,7 +13016,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>43647</v>
       </c>
@@ -13035,7 +13036,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>43678</v>
       </c>
@@ -13061,7 +13062,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>43709</v>
       </c>
@@ -13081,7 +13082,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>43739</v>
       </c>
@@ -13101,7 +13102,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>43770</v>
       </c>
@@ -13121,7 +13122,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>43800</v>
       </c>
@@ -13147,7 +13148,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>45</v>
@@ -13169,7 +13170,7 @@
         <v>43815</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>53</v>
@@ -13191,7 +13192,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>46</v>
@@ -13213,7 +13214,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>53</v>
@@ -13235,7 +13236,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="48" t="s">
         <v>61</v>
       </c>
@@ -13253,7 +13254,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>43831</v>
       </c>
@@ -13273,7 +13274,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>43862</v>
       </c>
@@ -13293,7 +13294,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>43891</v>
       </c>
@@ -13313,7 +13314,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>43922</v>
       </c>
@@ -13333,7 +13334,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>43952</v>
       </c>
@@ -13353,7 +13354,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>43983</v>
       </c>
@@ -13373,7 +13374,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>44013</v>
       </c>
@@ -13393,7 +13394,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>44044</v>
       </c>
@@ -13413,7 +13414,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>44075</v>
       </c>
@@ -13433,7 +13434,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>44105</v>
       </c>
@@ -13453,7 +13454,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>44136</v>
       </c>
@@ -13473,7 +13474,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>44166</v>
       </c>
@@ -13497,7 +13498,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="48" t="s">
         <v>63</v>
       </c>
@@ -13515,7 +13516,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>44197</v>
       </c>
@@ -13535,7 +13536,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>44228</v>
       </c>
@@ -13555,7 +13556,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>44256</v>
       </c>
@@ -13575,7 +13576,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>44287</v>
       </c>
@@ -13595,7 +13596,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>44317</v>
       </c>
@@ -13615,7 +13616,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>44348</v>
       </c>
@@ -13635,7 +13636,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>44378</v>
       </c>
@@ -13655,7 +13656,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>44409</v>
       </c>
@@ -13675,7 +13676,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>44440</v>
       </c>
@@ -13695,7 +13696,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>44470</v>
       </c>
@@ -13715,7 +13716,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>44501</v>
       </c>
@@ -13737,7 +13738,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>44531</v>
       </c>
@@ -13761,7 +13762,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="48" t="s">
         <v>64</v>
       </c>
@@ -13779,7 +13780,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>44562</v>
       </c>
@@ -13799,7 +13800,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>44593</v>
       </c>
@@ -13819,7 +13820,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>44621</v>
       </c>
@@ -13843,7 +13844,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>44652</v>
       </c>
@@ -13867,7 +13868,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>44682</v>
       </c>
@@ -13891,7 +13892,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>44713</v>
       </c>
@@ -13917,7 +13918,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>412</v>
@@ -13937,7 +13938,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="49"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>44743</v>
       </c>
@@ -13963,7 +13964,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>45</v>
@@ -13982,7 +13983,7 @@
         <v>44742</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>45</v>
@@ -14001,7 +14002,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>410</v>
@@ -14021,7 +14022,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="49"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>44774</v>
       </c>
@@ -14047,7 +14048,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>409</v>
@@ -14067,7 +14068,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="49"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>44805</v>
       </c>
@@ -14093,7 +14094,7 @@
         <v>44830</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>97</v>
@@ -14113,7 +14114,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="49"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>44835</v>
       </c>
@@ -14133,7 +14134,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>44866</v>
       </c>
@@ -14157,7 +14158,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>44896</v>
       </c>
@@ -14183,7 +14184,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>407</v>
@@ -14203,7 +14204,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="48" t="s">
         <v>68</v>
       </c>
@@ -14221,7 +14222,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>44927</v>
       </c>
@@ -14245,7 +14246,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>44958</v>
       </c>
@@ -14269,7 +14270,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>44986</v>
       </c>
@@ -14295,7 +14296,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>411</v>
@@ -14317,7 +14318,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>45017</v>
       </c>
@@ -14337,7 +14338,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>45047</v>
       </c>
@@ -14361,7 +14362,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>45078</v>
       </c>
@@ -14387,7 +14388,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>418</v>
@@ -14407,7 +14408,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>45108</v>
       </c>
@@ -14433,7 +14434,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>420</v>
@@ -14455,7 +14456,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>422</v>
@@ -14475,7 +14476,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="49"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>45139</v>
       </c>
@@ -14499,7 +14500,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>45170</v>
       </c>
@@ -14519,7 +14520,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>45200</v>
       </c>
@@ -14543,7 +14544,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>45231</v>
       </c>
@@ -14569,7 +14570,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>418</v>
@@ -14589,7 +14590,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>45261</v>
       </c>
@@ -14615,7 +14616,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>417</v>
@@ -14635,7 +14636,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="49"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="48" t="s">
         <v>415</v>
       </c>
@@ -14653,25 +14654,27 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>45292</v>
       </c>
       <c r="B534" s="20"/>
-      <c r="C534" s="13"/>
+      <c r="C534" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D534" s="39"/>
       <c r="E534" s="9"/>
       <c r="F534" s="20"/>
-      <c r="G534" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G534" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H534" s="39"/>
       <c r="I534" s="9"/>
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>45323</v>
       </c>
@@ -14689,7 +14692,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>45352</v>
       </c>
@@ -14707,7 +14710,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>45383</v>
       </c>
@@ -14725,7 +14728,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>45413</v>
       </c>
@@ -14743,7 +14746,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>45444</v>
       </c>
@@ -14761,7 +14764,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>45474</v>
       </c>
@@ -14779,7 +14782,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>45505</v>
       </c>
@@ -14797,7 +14800,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>45536</v>
       </c>
@@ -14815,7 +14818,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>45566</v>
       </c>
@@ -14833,7 +14836,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>45597</v>
       </c>
@@ -14851,7 +14854,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>45627</v>
       </c>
@@ -14869,7 +14872,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>45658</v>
       </c>
@@ -14887,7 +14890,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>45689</v>
       </c>
@@ -14905,7 +14908,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>45717</v>
       </c>
@@ -14923,7 +14926,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>45748</v>
       </c>
@@ -14941,7 +14944,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>45778</v>
       </c>
@@ -14959,7 +14962,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>45809</v>
       </c>
@@ -14977,7 +14980,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>45839</v>
       </c>
@@ -14995,7 +14998,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>45870</v>
       </c>
@@ -15013,7 +15016,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>45901</v>
       </c>
@@ -15031,7 +15034,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>45931</v>
       </c>
@@ -15049,7 +15052,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>45962</v>
       </c>
@@ -15067,7 +15070,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>45992</v>
       </c>
@@ -15085,7 +15088,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40"/>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -15101,7 +15104,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -15117,7 +15120,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40"/>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -15133,7 +15136,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40"/>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -15149,7 +15152,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40"/>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15165,7 +15168,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -15181,7 +15184,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40"/>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15197,7 +15200,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15213,7 +15216,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40"/>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -15229,7 +15232,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40"/>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -15245,7 +15248,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40"/>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -15261,7 +15264,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -15277,7 +15280,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -15293,7 +15296,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -15309,7 +15312,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -15325,7 +15328,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="41"/>
       <c r="B573" s="15"/>
       <c r="C573" s="42"/>
@@ -15356,10 +15359,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15382,28 +15385,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -15416,7 +15419,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -15445,7 +15448,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -15469,17 +15472,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>405</v>
       </c>
@@ -15503,10 +15506,10 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>176.05500000000001</v>
+        <v>178.55500000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -15534,7 +15537,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -15560,7 +15563,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -15586,7 +15589,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -15612,7 +15615,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -15638,7 +15641,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15664,7 +15667,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15690,7 +15693,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -15716,7 +15719,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -15736,7 +15739,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -15756,7 +15759,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15776,7 +15779,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15797,7 +15800,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15818,7 +15821,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15839,7 +15842,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15860,7 +15863,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15881,7 +15884,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15902,7 +15905,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15923,7 +15926,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15944,7 +15947,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15965,7 +15968,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15986,7 +15989,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16007,7 +16010,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16028,7 +16031,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16049,7 +16052,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16070,7 +16073,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16091,7 +16094,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16112,7 +16115,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16133,7 +16136,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16154,7 +16157,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16175,7 +16178,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16196,7 +16199,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16205,7 +16208,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16214,7 +16217,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16223,7 +16226,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16232,7 +16235,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16241,7 +16244,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16250,7 +16253,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16259,7 +16262,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16268,7 +16271,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16277,7 +16280,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16286,7 +16289,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16295,7 +16298,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16304,7 +16307,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16313,7 +16316,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16322,7 +16325,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16331,7 +16334,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16340,7 +16343,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16349,7 +16352,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16358,7 +16361,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16367,7 +16370,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16376,7 +16379,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16385,7 +16388,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16394,7 +16397,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -16403,7 +16406,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -16412,7 +16415,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -16421,7 +16424,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -16430,7 +16433,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -16439,7 +16442,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -16448,7 +16451,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -16457,7 +16460,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
